--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C14F2679-CC06-44C0-8A34-04D1D93A5945}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDDDBCFC-4F20-4DCD-B61B-CDEB18032843}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -967,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -999,17 +999,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1073,15 +1062,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1246,13 +1226,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1260,22 +1253,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1284,7 +1277,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1296,19 +1289,19 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,208 +1316,202 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1539,76 +1526,76 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1617,25 +1604,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1954,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1977,296 +1961,296 @@
     <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="45" customFormat="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:15" s="43" customFormat="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="38" customFormat="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="74"/>
+      <c r="J8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="68"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1"/>
     <row r="12" spans="1:15" ht="31.5">
@@ -2438,21 +2422,22 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
       <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
     </row>
     <row r="17" spans="1:14" s="38" customFormat="1" ht="15.75">
       <c r="A17" s="6" t="s">
@@ -2742,13 +2727,13 @@
       <c r="G24" s="23">
         <v>59.95</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
     </row>
     <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="2" t="s">
@@ -2859,7 +2844,7 @@
       <c r="H27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="61" t="s">
         <v>94</v>
       </c>
       <c r="J27" s="11" t="s">
@@ -4113,21 +4098,21 @@
       <c r="N61" s="17"/>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="130"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="125"/>
     </row>
     <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="28" t="s">
@@ -4940,43 +4925,27 @@
       <c r="N107" s="12"/>
     </row>
     <row r="108" spans="1:14" ht="15.75">
-      <c r="A108" s="32"/>
+      <c r="A108" s="32" t="s">
+        <v>213</v>
+      </c>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75">
-      <c r="A109" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A16:M16"/>
     <mergeCell ref="A62:M62"/>
+    <mergeCell ref="A16:N16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FF475B09-3C1D-4ECA-A2E8-041F0E8BEEDA}"/>
@@ -5004,3335 +4973,3335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC46A34-9271-4016-8947-DDFFA1A0A1CA}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="42" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="38.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="80" t="s">
+      <c r="J1" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="78" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="89" t="s">
+      <c r="J5" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="87" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="90" t="s">
+      <c r="J8" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="88" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
+      <c r="A9" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="98" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="A10" s="96" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="102" t="s">
+      <c r="G12" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="102">
         <v>1</v>
       </c>
-      <c r="C13" s="104">
+      <c r="C13" s="102">
         <v>1</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <v>1</v>
       </c>
-      <c r="E13" s="104">
+      <c r="E13" s="102">
         <v>1</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="103">
         <v>2</v>
       </c>
-      <c r="G13" s="105">
+      <c r="G13" s="103">
         <v>2</v>
       </c>
-      <c r="H13" s="105">
+      <c r="H13" s="103">
         <v>2</v>
       </c>
-      <c r="I13" s="105">
+      <c r="I13" s="103">
         <v>2</v>
       </c>
-      <c r="J13" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="K13" s="90" t="s">
+      <c r="J13" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="88" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="31.5">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="106" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="108" t="s">
+      <c r="I14" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="108" t="s">
+      <c r="I15" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="108" t="s">
+      <c r="G16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="105" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="105" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="108" t="s">
+      <c r="G17" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="108" t="s">
+      <c r="I17" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
+      <c r="B18" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I18" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="108" t="s">
+      <c r="I19" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="107">
+      <c r="B20" s="105">
         <v>1</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="105">
         <v>1</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="105">
         <v>1</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="105">
         <v>1</v>
       </c>
-      <c r="F20" s="108">
+      <c r="F20" s="106">
         <v>1</v>
       </c>
-      <c r="G20" s="108">
+      <c r="G20" s="106">
         <v>1</v>
       </c>
-      <c r="H20" s="108">
+      <c r="H20" s="106">
         <v>1</v>
       </c>
-      <c r="I20" s="108">
+      <c r="I20" s="106">
         <v>1</v>
       </c>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="107">
         <v>59.95</v>
       </c>
-      <c r="C21" s="109">
+      <c r="C21" s="107">
         <v>59.95</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="107">
         <v>59.95</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="107">
         <v>59.95</v>
       </c>
-      <c r="F21" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="F21" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="109">
+      <c r="B22" s="107">
         <v>47.96</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="107">
         <v>47.96</v>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="107">
         <v>47.96</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="107">
         <v>47.96</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="G22" s="110">
+      <c r="G22" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="H22" s="110">
+      <c r="H22" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="I22" s="110">
+      <c r="I22" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="107">
         <v>0</v>
       </c>
-      <c r="C23" s="107">
+      <c r="C23" s="105">
         <v>0</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="107">
         <v>0</v>
       </c>
-      <c r="E23" s="109">
+      <c r="E23" s="107">
         <v>0</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="108">
         <v>0</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="108">
         <v>0</v>
       </c>
-      <c r="H23" s="110">
+      <c r="H23" s="108">
         <v>0</v>
       </c>
-      <c r="I23" s="110">
+      <c r="I23" s="108">
         <v>0</v>
       </c>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="108" t="s">
+      <c r="F24" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="108" t="s">
+      <c r="I24" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
     </row>
     <row r="25" spans="1:11" ht="283.5">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="112" t="s">
+      <c r="F25" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="112" t="s">
+      <c r="I25" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="113"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
     </row>
     <row r="27" spans="1:11" ht="31.5">
-      <c r="A27" s="114"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="112"/>
+      <c r="B27" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="111" t="s">
+      <c r="E27" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="112" t="s">
+      <c r="F27" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="H27" s="112" t="s">
+      <c r="H27" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="I27" s="112" t="s">
+      <c r="I27" s="110" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="300">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="115" t="s">
+      <c r="E28" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="116" t="s">
+      <c r="F28" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="116" t="s">
+      <c r="G28" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="116" t="s">
+      <c r="I28" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="107" t="s">
+      <c r="D29" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="107" t="s">
+      <c r="E30" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="108" t="s">
+      <c r="G30" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="108" t="s">
+      <c r="I30" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
     </row>
     <row r="31" spans="1:11" ht="31.5">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="F31" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
+      <c r="B32" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
+      <c r="B33" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
+      <c r="B34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="107" t="s">
+      <c r="E35" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="108" t="s">
+      <c r="I35" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E36" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="108" t="s">
+      <c r="H36" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="108" t="s">
+      <c r="I36" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="109">
+      <c r="B37" s="107">
         <v>47.96</v>
       </c>
-      <c r="C37" s="109">
+      <c r="C37" s="107">
         <v>47.96</v>
       </c>
-      <c r="D37" s="109">
+      <c r="D37" s="107">
         <v>47.96</v>
       </c>
-      <c r="E37" s="109">
+      <c r="E37" s="107">
         <v>47.96</v>
       </c>
-      <c r="F37" s="110">
+      <c r="F37" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="G37" s="110">
+      <c r="G37" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="H37" s="110">
+      <c r="H37" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="I37" s="110">
+      <c r="I37" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="109">
+      <c r="B38" s="107">
         <v>0</v>
       </c>
-      <c r="C38" s="109">
+      <c r="C38" s="107">
         <v>0</v>
       </c>
-      <c r="D38" s="109">
+      <c r="D38" s="107">
         <v>0</v>
       </c>
-      <c r="E38" s="109">
+      <c r="E38" s="107">
         <v>0</v>
       </c>
-      <c r="F38" s="110">
+      <c r="F38" s="108">
         <v>0</v>
       </c>
-      <c r="G38" s="110">
+      <c r="G38" s="108">
         <v>0</v>
       </c>
-      <c r="H38" s="110">
+      <c r="H38" s="108">
         <v>0</v>
       </c>
-      <c r="I38" s="110">
+      <c r="I38" s="108">
         <v>0</v>
       </c>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="107">
+      <c r="B39" s="105">
         <v>3</v>
       </c>
-      <c r="C39" s="107">
+      <c r="C39" s="105">
         <v>3</v>
       </c>
-      <c r="D39" s="107">
+      <c r="D39" s="105">
         <v>3</v>
       </c>
-      <c r="E39" s="107">
+      <c r="E39" s="105">
         <v>3</v>
       </c>
-      <c r="F39" s="108">
+      <c r="F39" s="106">
         <v>3</v>
       </c>
-      <c r="G39" s="108">
+      <c r="G39" s="106">
         <v>3</v>
       </c>
-      <c r="H39" s="108">
+      <c r="H39" s="106">
         <v>3</v>
       </c>
-      <c r="I39" s="108">
+      <c r="I39" s="106">
         <v>3</v>
       </c>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
     </row>
     <row r="40" spans="1:11" ht="31.5">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="107" t="s">
+      <c r="E40" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="108" t="s">
+      <c r="G40" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="I40" s="108" t="s">
+      <c r="I40" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
     </row>
     <row r="41" spans="1:11" ht="267.75">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="111" t="s">
+      <c r="C41" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="111" t="s">
+      <c r="E41" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F41" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="G41" s="112" t="s">
+      <c r="G41" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="H41" s="112" t="s">
+      <c r="H41" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="112" t="s">
+      <c r="I41" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
     </row>
     <row r="42" spans="1:11" ht="31.5">
-      <c r="A42" s="113"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="112" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="112" t="s">
+      <c r="G42" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="I42" s="112" t="s">
+      <c r="I42" s="110" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5">
-      <c r="A43" s="114"/>
-      <c r="B43" s="107" t="s">
+      <c r="A43" s="112"/>
+      <c r="B43" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="E43" s="111" t="s">
+      <c r="E43" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
     </row>
     <row r="44" spans="1:11" ht="300">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="116" t="s">
+      <c r="F44" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="116" t="s">
+      <c r="H44" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="I44" s="116" t="s">
+      <c r="I44" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="118" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
+      <c r="B45" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="116" t="s">
+        <v>214</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B46" s="107" t="s">
+      <c r="B46" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="107" t="s">
+      <c r="E46" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="108" t="s">
+      <c r="G46" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H46" s="108" t="s">
+      <c r="H46" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="I46" s="108" t="s">
+      <c r="I46" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="107" t="s">
+      <c r="B47" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="107" t="s">
+      <c r="C47" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="G47" s="108" t="s">
+      <c r="G47" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="108" t="s">
+      <c r="H47" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="106" t="s">
         <v>241</v>
       </c>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="107" t="s">
+      <c r="E48" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="108" t="s">
+      <c r="G48" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="H48" s="108" t="s">
+      <c r="H48" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="108" t="s">
+      <c r="I48" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
     </row>
     <row r="49" spans="1:11" ht="78.75">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="107" t="s">
+      <c r="C49" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="107" t="s">
+      <c r="D49" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="107" t="s">
+      <c r="E49" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="108" t="s">
+      <c r="F49" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="108" t="s">
+      <c r="G49" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="H49" s="108" t="s">
+      <c r="H49" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="I49" s="108" t="s">
+      <c r="I49" s="106" t="s">
         <v>242</v>
       </c>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
     </row>
     <row r="50" spans="1:11" ht="31.5">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="C50" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="107" t="s">
+      <c r="D50" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="107" t="s">
+      <c r="E50" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G50" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
+      <c r="F50" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H50" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I50" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G51" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I51" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
+      <c r="B51" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G51" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
+      <c r="B52" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="107" t="s">
+      <c r="E53" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="F53" s="108" t="s">
+      <c r="F53" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="G53" s="108" t="s">
+      <c r="G53" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="H53" s="108" t="s">
+      <c r="H53" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="I53" s="108" t="s">
+      <c r="I53" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="107" t="s">
+      <c r="C54" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="107" t="s">
+      <c r="E54" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="108" t="s">
+      <c r="F54" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="G54" s="108" t="s">
+      <c r="G54" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="H54" s="108" t="s">
+      <c r="H54" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="I54" s="108" t="s">
+      <c r="I54" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="107">
+      <c r="B55" s="105">
         <v>3</v>
       </c>
-      <c r="C55" s="107">
+      <c r="C55" s="105">
         <v>3</v>
       </c>
-      <c r="D55" s="107">
+      <c r="D55" s="105">
         <v>3</v>
       </c>
-      <c r="E55" s="107">
+      <c r="E55" s="105">
         <v>3</v>
       </c>
-      <c r="F55" s="108">
+      <c r="F55" s="106">
         <v>3</v>
       </c>
-      <c r="G55" s="108">
+      <c r="G55" s="106">
         <v>3</v>
       </c>
-      <c r="H55" s="108">
+      <c r="H55" s="106">
         <v>3</v>
       </c>
-      <c r="I55" s="108">
+      <c r="I55" s="106">
         <v>3</v>
       </c>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="104" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E56" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I56" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
+      <c r="B56" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H56" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="109">
+      <c r="B57" s="107">
         <v>59.95</v>
       </c>
-      <c r="C57" s="109">
+      <c r="C57" s="107">
         <v>59.95</v>
       </c>
-      <c r="D57" s="109">
+      <c r="D57" s="107">
         <v>59.95</v>
       </c>
-      <c r="E57" s="109">
+      <c r="E57" s="107">
         <v>59.95</v>
       </c>
-      <c r="F57" s="110">
+      <c r="F57" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="G57" s="110">
+      <c r="G57" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="H57" s="110">
+      <c r="H57" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="I57" s="110">
+      <c r="I57" s="108">
         <v>39.950000000000003</v>
       </c>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B58" s="109">
+      <c r="B58" s="107">
         <v>3.99</v>
       </c>
-      <c r="C58" s="109">
+      <c r="C58" s="107">
         <v>3.99</v>
       </c>
-      <c r="D58" s="109">
+      <c r="D58" s="107">
         <v>3.99</v>
       </c>
-      <c r="E58" s="109">
+      <c r="E58" s="107">
         <v>3.99</v>
       </c>
-      <c r="F58" s="110">
+      <c r="F58" s="108">
         <v>3.99</v>
       </c>
-      <c r="G58" s="110">
+      <c r="G58" s="108">
         <v>3.99</v>
       </c>
-      <c r="H58" s="110">
+      <c r="H58" s="108">
         <v>3.99</v>
       </c>
-      <c r="I58" s="110">
+      <c r="I58" s="108">
         <v>3.99</v>
       </c>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="106" t="s">
+      <c r="A59" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="107" t="s">
+      <c r="E59" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="108" t="s">
+      <c r="F59" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="G59" s="108" t="s">
+      <c r="G59" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="H59" s="108" t="s">
+      <c r="H59" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="I59" s="108" t="s">
+      <c r="I59" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="107" t="s">
+      <c r="C60" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="107" t="s">
+      <c r="D60" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="107" t="s">
+      <c r="E60" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="F60" s="108" t="s">
+      <c r="F60" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="G60" s="108" t="s">
+      <c r="G60" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="H60" s="108" t="s">
+      <c r="H60" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="I60" s="108" t="s">
+      <c r="I60" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="J60" s="86"/>
-      <c r="K60" s="86"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="107" t="s">
+      <c r="C61" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="107" t="s">
+      <c r="D61" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="107" t="s">
+      <c r="E61" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="108" t="s">
+      <c r="F61" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="G61" s="108" t="s">
+      <c r="G61" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="H61" s="108" t="s">
+      <c r="H61" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="I61" s="108" t="s">
+      <c r="I61" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="J61" s="86"/>
-      <c r="K61" s="86"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="111">
+      <c r="B62" s="109">
         <v>3</v>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="109">
         <v>3</v>
       </c>
-      <c r="D62" s="111">
+      <c r="D62" s="109">
         <v>3</v>
       </c>
-      <c r="E62" s="111">
+      <c r="E62" s="109">
         <v>3</v>
       </c>
-      <c r="F62" s="112">
+      <c r="F62" s="110">
         <v>3</v>
       </c>
-      <c r="G62" s="112">
+      <c r="G62" s="110">
         <v>3</v>
       </c>
-      <c r="H62" s="112">
+      <c r="H62" s="110">
         <v>3</v>
       </c>
-      <c r="I62" s="112">
+      <c r="I62" s="110">
         <v>3</v>
       </c>
-      <c r="J62" s="86"/>
-      <c r="K62" s="86"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="121" t="s">
+      <c r="B63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="121" t="s">
+      <c r="C63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="121" t="s">
+      <c r="E63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="121" t="s">
+      <c r="F63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="G63" s="121" t="s">
+      <c r="G63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H63" s="121" t="s">
+      <c r="H63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="I63" s="121" t="s">
+      <c r="I63" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="121" t="s">
-        <v>214</v>
-      </c>
-      <c r="K63" s="121" t="s">
+      <c r="J63" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="K63" s="119" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="106" t="s">
+      <c r="A64" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E64" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G64" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H64" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J64" s="86"/>
-      <c r="K64" s="86"/>
+      <c r="B64" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="106" t="s">
+      <c r="A65" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B65" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E65" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G65" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I65" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J65" s="86"/>
-      <c r="K65" s="86"/>
+      <c r="B65" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="106" t="s">
+      <c r="A66" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H66" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I66" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J66" s="86"/>
-      <c r="K66" s="86"/>
+      <c r="B66" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I66" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I67" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
+      <c r="B67" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="B68" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H68" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I68" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
+      <c r="B68" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I68" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="106" t="s">
+      <c r="A69" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E69" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H69" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I69" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J69" s="86"/>
-      <c r="K69" s="86"/>
+      <c r="B69" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="106" t="s">
+      <c r="A70" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J70" s="86"/>
-      <c r="K70" s="86"/>
+      <c r="B70" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" s="84"/>
+      <c r="K70" s="84"/>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="106" t="s">
+      <c r="A71" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H71" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J71" s="86"/>
-      <c r="K71" s="86"/>
+      <c r="B71" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="106" t="s">
+      <c r="A72" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="B72" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G72" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J72" s="86"/>
-      <c r="K72" s="86"/>
+      <c r="B72" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J72" s="84"/>
+      <c r="K72" s="84"/>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="B73" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
+      <c r="B73" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J73" s="84"/>
+      <c r="K73" s="84"/>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="106" t="s">
+      <c r="A74" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="B74" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H74" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J74" s="86"/>
-      <c r="K74" s="86"/>
+      <c r="B74" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H74" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I74" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J74" s="84"/>
+      <c r="K74" s="84"/>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E75" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G75" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I75" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J75" s="86"/>
-      <c r="K75" s="86"/>
+      <c r="B75" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H75" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="106" t="s">
+      <c r="A76" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G76" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H76" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J76" s="86"/>
-      <c r="K76" s="86"/>
+      <c r="B76" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J76" s="84"/>
+      <c r="K76" s="84"/>
     </row>
     <row r="77" spans="1:11" ht="15.75">
-      <c r="A77" s="106" t="s">
+      <c r="A77" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="B77" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F77" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G77" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H77" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I77" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J77" s="86"/>
-      <c r="K77" s="86"/>
+      <c r="B77" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I77" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
     </row>
     <row r="78" spans="1:11" ht="15.75">
-      <c r="A78" s="106" t="s">
+      <c r="A78" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B78" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F78" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J78" s="86"/>
-      <c r="K78" s="86"/>
+      <c r="B78" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
     </row>
     <row r="79" spans="1:11" ht="15.75">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="104" t="s">
         <v>204</v>
       </c>
-      <c r="B79" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G79" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J79" s="86"/>
-      <c r="K79" s="86"/>
+      <c r="B79" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="106" t="s">
+      <c r="A80" s="104" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H80" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I80" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J80" s="86"/>
-      <c r="K80" s="86"/>
+      <c r="B80" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="106" t="s">
+      <c r="A81" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="B81" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G81" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J81" s="86"/>
-      <c r="K81" s="86"/>
+      <c r="B81" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84"/>
     </row>
     <row r="82" spans="1:11" ht="31.5">
-      <c r="A82" s="106" t="s">
+      <c r="A82" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C82" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G82" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H82" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J82" s="86"/>
-      <c r="K82" s="86"/>
+      <c r="B82" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H82" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="106" t="s">
+      <c r="A83" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G83" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H83" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I83" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J83" s="86"/>
-      <c r="K83" s="86"/>
+      <c r="B83" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="B84" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H84" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J84" s="86"/>
-      <c r="K84" s="86"/>
+      <c r="B84" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="106" t="s">
+      <c r="A85" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G85" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J85" s="86"/>
-      <c r="K85" s="86"/>
+      <c r="B85" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H85" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
     </row>
     <row r="86" spans="1:11" ht="15.75">
-      <c r="A86" s="106" t="s">
+      <c r="A86" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H86" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J86" s="86"/>
-      <c r="K86" s="86"/>
+      <c r="B86" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
     </row>
     <row r="87" spans="1:11" ht="15.75">
-      <c r="A87" s="106" t="s">
+      <c r="A87" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G87" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H87" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I87" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J87" s="86"/>
-      <c r="K87" s="86"/>
+      <c r="B87" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J87" s="84"/>
+      <c r="K87" s="84"/>
     </row>
     <row r="88" spans="1:11" ht="15.75">
-      <c r="A88" s="106" t="s">
+      <c r="A88" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H88" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J88" s="86"/>
-      <c r="K88" s="86"/>
+      <c r="B88" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="B89" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G89" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H89" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J89" s="86"/>
-      <c r="K89" s="86"/>
+      <c r="B89" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
     </row>
     <row r="90" spans="1:11" ht="31.5">
-      <c r="A90" s="106" t="s">
+      <c r="A90" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H90" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I90" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J90" s="86"/>
-      <c r="K90" s="86"/>
+      <c r="B90" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="106" t="s">
+      <c r="A91" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F91" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G91" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H91" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J91" s="86"/>
-      <c r="K91" s="86"/>
+      <c r="B91" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J91" s="84"/>
+      <c r="K91" s="84"/>
     </row>
     <row r="92" spans="1:11" ht="31.5">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C92" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G92" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J92" s="86"/>
-      <c r="K92" s="86"/>
+      <c r="B92" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" s="84"/>
+      <c r="K92" s="84"/>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="106" t="s">
+      <c r="A93" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G93" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H93" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J93" s="86"/>
-      <c r="K93" s="86"/>
+      <c r="B93" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="84"/>
+      <c r="K93" s="84"/>
     </row>
     <row r="94" spans="1:11" ht="31.5">
-      <c r="A94" s="106" t="s">
+      <c r="A94" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E94" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H94" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I94" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J94" s="86"/>
-      <c r="K94" s="86"/>
+      <c r="B94" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H94" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
     </row>
     <row r="95" spans="1:11" ht="15.75">
-      <c r="A95" s="106" t="s">
+      <c r="A95" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E95" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G95" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H95" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J95" s="86"/>
-      <c r="K95" s="86"/>
+      <c r="B95" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I95" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J95" s="84"/>
+      <c r="K95" s="84"/>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="106" t="s">
+      <c r="A96" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="B96" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F96" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H96" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J96" s="86"/>
-      <c r="K96" s="86"/>
+      <c r="B96" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I96" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
     </row>
     <row r="97" spans="1:11" ht="15.75">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F97" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H97" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I97" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J97" s="86"/>
-      <c r="K97" s="86"/>
+      <c r="B97" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J97" s="84"/>
+      <c r="K97" s="84"/>
     </row>
     <row r="98" spans="1:11" ht="15.75">
-      <c r="A98" s="106" t="s">
+      <c r="A98" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G98" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H98" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I98" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J98" s="86"/>
-      <c r="K98" s="86"/>
+      <c r="B98" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H98" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I98" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J98" s="84"/>
+      <c r="K98" s="84"/>
     </row>
     <row r="99" spans="1:11" ht="15.75">
-      <c r="A99" s="106" t="s">
+      <c r="A99" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H99" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I99" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J99" s="86"/>
-      <c r="K99" s="86"/>
+      <c r="B99" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H99" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J99" s="84"/>
+      <c r="K99" s="84"/>
     </row>
     <row r="100" spans="1:11" ht="15.75">
-      <c r="A100" s="106" t="s">
+      <c r="A100" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G100" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H100" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J100" s="86"/>
-      <c r="K100" s="86"/>
+      <c r="B100" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J100" s="84"/>
+      <c r="K100" s="84"/>
     </row>
     <row r="101" spans="1:11" ht="15.75">
-      <c r="A101" s="106" t="s">
+      <c r="A101" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G101" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I101" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J101" s="86"/>
-      <c r="K101" s="86"/>
+      <c r="B101" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J101" s="84"/>
+      <c r="K101" s="84"/>
     </row>
     <row r="102" spans="1:11" ht="15.75">
-      <c r="A102" s="106" t="s">
+      <c r="A102" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G102" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H102" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I102" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J102" s="86"/>
-      <c r="K102" s="86"/>
+      <c r="B102" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H102" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I102" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J102" s="84"/>
+      <c r="K102" s="84"/>
     </row>
     <row r="103" spans="1:11" ht="15.75">
-      <c r="A103" s="106" t="s">
+      <c r="A103" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="B103" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H103" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I103" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J103" s="86"/>
-      <c r="K103" s="86"/>
+      <c r="B103" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J103" s="84"/>
+      <c r="K103" s="84"/>
     </row>
     <row r="104" spans="1:11" ht="15.75">
-      <c r="A104" s="106" t="s">
+      <c r="A104" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G104" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H104" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I104" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J104" s="86"/>
-      <c r="K104" s="86"/>
+      <c r="B104" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I104" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J104" s="84"/>
+      <c r="K104" s="84"/>
     </row>
     <row r="105" spans="1:11" ht="15.75">
-      <c r="A105" s="106" t="s">
+      <c r="A105" s="104" t="s">
         <v>249</v>
       </c>
-      <c r="B105" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E105" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G105" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H105" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I105" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J105" s="86"/>
-      <c r="K105" s="86"/>
+      <c r="B105" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G105" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I105" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J105" s="84"/>
+      <c r="K105" s="84"/>
     </row>
     <row r="106" spans="1:11" ht="15.75">
-      <c r="A106" s="106" t="s">
+      <c r="A106" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B106" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E106" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G106" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H106" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I106" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J106" s="86"/>
-      <c r="K106" s="86"/>
+      <c r="B106" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G106" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H106" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I106" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J106" s="84"/>
+      <c r="K106" s="84"/>
     </row>
     <row r="107" spans="1:11" ht="15.75">
-      <c r="A107" s="106" t="s">
+      <c r="A107" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D107" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G107" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H107" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I107" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J107" s="86"/>
-      <c r="K107" s="86"/>
+      <c r="B107" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G107" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H107" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I107" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J107" s="84"/>
+      <c r="K107" s="84"/>
     </row>
     <row r="108" spans="1:11" ht="15.75">
-      <c r="A108" s="106" t="s">
+      <c r="A108" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="B108" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="D108" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="F108" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="G108" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="H108" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="I108" s="108" t="s">
-        <v>214</v>
-      </c>
-      <c r="J108" s="86"/>
-      <c r="K108" s="86"/>
+      <c r="B108" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E108" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="G108" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="H108" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="I108" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="J108" s="84"/>
+      <c r="K108" s="84"/>
     </row>
     <row r="109" spans="1:11" ht="15.75">
-      <c r="A109" s="122"/>
-      <c r="B109" s="123"/>
-      <c r="C109" s="123"/>
-      <c r="D109" s="123"/>
-      <c r="E109" s="123"/>
-      <c r="F109" s="123"/>
-      <c r="G109" s="123"/>
-      <c r="H109" s="123"/>
-      <c r="I109" s="123"/>
-      <c r="J109" s="86"/>
-      <c r="K109" s="86"/>
+      <c r="A109" s="120"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="121"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="84"/>
+      <c r="K109" s="84"/>
     </row>
     <row r="110" spans="1:11" ht="15.75">
-      <c r="A110" s="122" t="s">
+      <c r="A110" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="B110" s="95"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="95"/>
-      <c r="I110" s="95"/>
-      <c r="J110" s="86"/>
-      <c r="K110" s="86"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="93"/>
+      <c r="H110" s="93"/>
+      <c r="I110" s="93"/>
+      <c r="J110" s="84"/>
+      <c r="K110" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDDDBCFC-4F20-4DCD-B61B-CDEB18032843}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA2928EC-7070-4E91-BCC4-A84FF5193E88}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="250">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -1245,7 +1245,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1495,12 +1495,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2246,8 +2240,8 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="58"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
       <c r="F10" s="60"/>
@@ -2422,22 +2416,22 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
     </row>
     <row r="17" spans="1:14" s="38" customFormat="1" ht="15.75">
       <c r="A17" s="6" t="s">
@@ -4098,21 +4092,21 @@
       <c r="N61" s="17"/>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A62" s="123" t="s">
+      <c r="A62" s="121" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="125"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="122"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="123"/>
     </row>
     <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="28" t="s">
@@ -4971,16 +4965,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC46A34-9271-4016-8947-DDFFA1A0A1CA}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="40" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="40" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="40" customWidth="1"/>
@@ -5088,18 +5082,18 @@
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
     </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="79" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>31</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>12</v>
@@ -5116,3192 +5110,3064 @@
       <c r="I4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>214</v>
-      </c>
+      <c r="J4" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5">
+      <c r="A5" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="83" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="94" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
-      <c r="A9" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="96" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+    <row r="8" spans="1:11" ht="31.5" customHeight="1">
+      <c r="A8" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="100">
+        <v>1</v>
+      </c>
+      <c r="C9" s="100">
+        <v>1</v>
+      </c>
+      <c r="D9" s="100">
+        <v>1</v>
+      </c>
+      <c r="E9" s="100">
+        <v>1</v>
+      </c>
+      <c r="F9" s="101">
+        <v>2</v>
+      </c>
+      <c r="G9" s="101">
+        <v>2</v>
+      </c>
+      <c r="H9" s="101">
+        <v>2</v>
+      </c>
+      <c r="I9" s="101">
+        <v>2</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5">
+      <c r="A10" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="104" t="s">
+        <v>216</v>
+      </c>
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="104" t="s">
+        <v>64</v>
+      </c>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
     </row>
-    <row r="12" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A12" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="100" t="s">
-        <v>46</v>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>67</v>
       </c>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="102">
-        <v>1</v>
-      </c>
-      <c r="C13" s="102">
-        <v>1</v>
-      </c>
-      <c r="D13" s="102">
-        <v>1</v>
-      </c>
-      <c r="E13" s="102">
-        <v>1</v>
-      </c>
-      <c r="F13" s="103">
-        <v>2</v>
-      </c>
-      <c r="G13" s="103">
-        <v>2</v>
-      </c>
-      <c r="H13" s="103">
-        <v>2</v>
-      </c>
-      <c r="I13" s="103">
-        <v>2</v>
-      </c>
-      <c r="J13" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="K13" s="88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="31.5">
-      <c r="A14" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>216</v>
+      <c r="A13" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="106" t="s">
-        <v>64</v>
+      <c r="A15" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>81</v>
       </c>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="106" t="s">
-        <v>67</v>
+      <c r="A16" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="103">
+        <v>1</v>
+      </c>
+      <c r="C16" s="103">
+        <v>1</v>
+      </c>
+      <c r="D16" s="103">
+        <v>1</v>
+      </c>
+      <c r="E16" s="103">
+        <v>1</v>
+      </c>
+      <c r="F16" s="104">
+        <v>1</v>
+      </c>
+      <c r="G16" s="104">
+        <v>1</v>
+      </c>
+      <c r="H16" s="104">
+        <v>1</v>
+      </c>
+      <c r="I16" s="104">
+        <v>1</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="105" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="106" t="s">
-        <v>78</v>
+      <c r="A17" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="C17" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="D17" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="E17" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>214</v>
+      <c r="A18" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="C18" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="D18" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="E18" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="F18" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G18" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H18" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I18" s="106">
+        <v>39.950000000000003</v>
       </c>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="105" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>81</v>
+      <c r="A19" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="105">
+        <v>0</v>
+      </c>
+      <c r="C19" s="103">
+        <v>0</v>
+      </c>
+      <c r="D19" s="105">
+        <v>0</v>
+      </c>
+      <c r="E19" s="105">
+        <v>0</v>
+      </c>
+      <c r="F19" s="106">
+        <v>0</v>
+      </c>
+      <c r="G19" s="106">
+        <v>0</v>
+      </c>
+      <c r="H19" s="106">
+        <v>0</v>
+      </c>
+      <c r="I19" s="106">
+        <v>0</v>
       </c>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="105">
-        <v>1</v>
-      </c>
-      <c r="C20" s="105">
-        <v>1</v>
-      </c>
-      <c r="D20" s="105">
-        <v>1</v>
-      </c>
-      <c r="E20" s="105">
-        <v>1</v>
-      </c>
-      <c r="F20" s="106">
-        <v>1</v>
-      </c>
-      <c r="G20" s="106">
-        <v>1</v>
-      </c>
-      <c r="H20" s="106">
-        <v>1</v>
-      </c>
-      <c r="I20" s="106">
-        <v>1</v>
+      <c r="A20" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="104" t="s">
+        <v>97</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="C21" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="D21" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="E21" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="106" t="s">
-        <v>214</v>
+    <row r="21" spans="1:11" ht="283.5">
+      <c r="A21" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>227</v>
       </c>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="104" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="C22" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="D22" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="E22" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="F22" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G22" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H22" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I22" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="107">
-        <v>0</v>
-      </c>
-      <c r="C23" s="105">
-        <v>0</v>
-      </c>
-      <c r="D23" s="107">
-        <v>0</v>
-      </c>
-      <c r="E23" s="107">
-        <v>0</v>
-      </c>
-      <c r="F23" s="108">
-        <v>0</v>
-      </c>
-      <c r="G23" s="108">
-        <v>0</v>
-      </c>
-      <c r="H23" s="108">
-        <v>0</v>
-      </c>
-      <c r="I23" s="108">
-        <v>0</v>
-      </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>222</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="105" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="106" t="s">
-        <v>97</v>
+      <c r="A22" s="109"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+    </row>
+    <row r="23" spans="1:11" ht="31.5">
+      <c r="A23" s="110"/>
+      <c r="B23" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="300">
+      <c r="A24" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="112" t="s">
+        <v>104</v>
       </c>
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
     </row>
-    <row r="25" spans="1:11" ht="283.5">
-      <c r="A25" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="I25" s="110" t="s">
-        <v>227</v>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="104" t="s">
+        <v>229</v>
       </c>
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="111"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
+      <c r="A26" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
     </row>
     <row r="27" spans="1:11" ht="31.5">
-      <c r="A27" s="112"/>
-      <c r="B27" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="I27" s="110" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="300">
-      <c r="A28" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="114" t="s">
-        <v>104</v>
+      <c r="A27" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="105" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="H29" s="106" t="s">
-        <v>229</v>
-      </c>
-      <c r="I29" s="106" t="s">
-        <v>229</v>
+      <c r="A29" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="H30" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="106" t="s">
-        <v>108</v>
+      <c r="A30" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
     </row>
-    <row r="31" spans="1:11" ht="31.5">
-      <c r="A31" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="106" t="s">
-        <v>214</v>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="104" t="s">
+        <v>125</v>
       </c>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="106" t="s">
-        <v>214</v>
+      <c r="A32" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="104" t="s">
+        <v>138</v>
       </c>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F33" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="106" t="s">
-        <v>214</v>
+      <c r="A33" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="C33" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="D33" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="E33" s="105">
+        <v>47.96</v>
+      </c>
+      <c r="F33" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G33" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H33" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I33" s="106">
+        <v>39.950000000000003</v>
       </c>
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G34" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I34" s="106" t="s">
-        <v>214</v>
+      <c r="A34" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="105">
+        <v>0</v>
+      </c>
+      <c r="C34" s="105">
+        <v>0</v>
+      </c>
+      <c r="D34" s="105">
+        <v>0</v>
+      </c>
+      <c r="E34" s="105">
+        <v>0</v>
+      </c>
+      <c r="F34" s="106">
+        <v>0</v>
+      </c>
+      <c r="G34" s="106">
+        <v>0</v>
+      </c>
+      <c r="H34" s="106">
+        <v>0</v>
+      </c>
+      <c r="I34" s="106">
+        <v>0</v>
       </c>
       <c r="J34" s="84"/>
       <c r="K34" s="84"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="105" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="105" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="F35" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="I35" s="106" t="s">
-        <v>125</v>
+      <c r="A35" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="103">
+        <v>3</v>
+      </c>
+      <c r="C35" s="103">
+        <v>3</v>
+      </c>
+      <c r="D35" s="103">
+        <v>3</v>
+      </c>
+      <c r="E35" s="103">
+        <v>3</v>
+      </c>
+      <c r="F35" s="104">
+        <v>3</v>
+      </c>
+      <c r="G35" s="104">
+        <v>3</v>
+      </c>
+      <c r="H35" s="104">
+        <v>3</v>
+      </c>
+      <c r="I35" s="104">
+        <v>3</v>
       </c>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="105" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="105" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="106" t="s">
-        <v>138</v>
+    <row r="36" spans="1:11" ht="31.5">
+      <c r="A36" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="104" t="s">
+        <v>145</v>
       </c>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="B37" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="C37" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="D37" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="E37" s="107">
-        <v>47.96</v>
-      </c>
-      <c r="F37" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G37" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H37" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I37" s="108">
-        <v>39.950000000000003</v>
+    <row r="37" spans="1:11" ht="267.75">
+      <c r="A37" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="108" t="s">
+        <v>240</v>
       </c>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="107">
-        <v>0</v>
-      </c>
-      <c r="C38" s="107">
-        <v>0</v>
-      </c>
-      <c r="D38" s="107">
-        <v>0</v>
-      </c>
-      <c r="E38" s="107">
-        <v>0</v>
-      </c>
-      <c r="F38" s="108">
-        <v>0</v>
-      </c>
-      <c r="G38" s="108">
-        <v>0</v>
-      </c>
-      <c r="H38" s="108">
-        <v>0</v>
-      </c>
-      <c r="I38" s="108">
-        <v>0</v>
-      </c>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="105">
-        <v>3</v>
-      </c>
-      <c r="C39" s="105">
-        <v>3</v>
-      </c>
-      <c r="D39" s="105">
-        <v>3</v>
-      </c>
-      <c r="E39" s="105">
-        <v>3</v>
-      </c>
-      <c r="F39" s="106">
-        <v>3</v>
-      </c>
-      <c r="G39" s="106">
-        <v>3</v>
-      </c>
-      <c r="H39" s="106">
-        <v>3</v>
-      </c>
-      <c r="I39" s="106">
-        <v>3</v>
-      </c>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-    </row>
-    <row r="40" spans="1:11" ht="31.5">
-      <c r="A40" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="106" t="s">
-        <v>145</v>
+    <row r="38" spans="1:11" ht="31.5">
+      <c r="A38" s="109"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="I38" s="108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.5">
+      <c r="A39" s="110"/>
+      <c r="B39" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+    </row>
+    <row r="40" spans="1:11" ht="300">
+      <c r="A40" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="112" t="s">
+        <v>151</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
     </row>
-    <row r="41" spans="1:11" ht="267.75">
-      <c r="A41" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="109" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="H41" s="110" t="s">
-        <v>240</v>
-      </c>
-      <c r="I41" s="110" t="s">
-        <v>240</v>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="115" t="s">
+        <v>214</v>
       </c>
       <c r="J41" s="84"/>
       <c r="K41" s="84"/>
     </row>
-    <row r="42" spans="1:11" ht="31.5">
-      <c r="A42" s="111"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="G42" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="I42" s="110" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="31.5">
-      <c r="A43" s="112"/>
-      <c r="B43" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="E43" s="109" t="s">
-        <v>228</v>
-      </c>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-    </row>
-    <row r="44" spans="1:11" ht="300">
-      <c r="A44" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="114" t="s">
-        <v>151</v>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="I43" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="104" t="s">
+        <v>108</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="104" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="116" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="117" t="s">
-        <v>214</v>
+    <row r="45" spans="1:11" ht="78.75">
+      <c r="A45" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="104" t="s">
+        <v>242</v>
       </c>
       <c r="J45" s="84"/>
       <c r="K45" s="84"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="E46" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="106" t="s">
-        <v>159</v>
+    <row r="46" spans="1:11" ht="31.5">
+      <c r="A46" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J46" s="84"/>
       <c r="K46" s="84"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="G47" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="H47" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="I47" s="106" t="s">
-        <v>241</v>
+      <c r="A47" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J47" s="84"/>
       <c r="K47" s="84"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="106" t="s">
-        <v>108</v>
+      <c r="A48" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
     </row>
-    <row r="49" spans="1:11" ht="78.75">
-      <c r="A49" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E49" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="H49" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="I49" s="106" t="s">
-        <v>242</v>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="104" t="s">
+        <v>164</v>
       </c>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
     </row>
-    <row r="50" spans="1:11" ht="31.5">
-      <c r="A50" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G50" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="106" t="s">
-        <v>214</v>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" s="104" t="s">
+        <v>176</v>
       </c>
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G51" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H51" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I51" s="106" t="s">
-        <v>214</v>
+      <c r="A51" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="103">
+        <v>3</v>
+      </c>
+      <c r="C51" s="103">
+        <v>3</v>
+      </c>
+      <c r="D51" s="103">
+        <v>3</v>
+      </c>
+      <c r="E51" s="103">
+        <v>3</v>
+      </c>
+      <c r="F51" s="104">
+        <v>3</v>
+      </c>
+      <c r="G51" s="104">
+        <v>3</v>
+      </c>
+      <c r="H51" s="104">
+        <v>3</v>
+      </c>
+      <c r="I51" s="104">
+        <v>3</v>
       </c>
       <c r="J51" s="84"/>
       <c r="K51" s="84"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="106" t="s">
+      <c r="A52" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="F53" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="G53" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="I53" s="106" t="s">
-        <v>164</v>
+      <c r="A53" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="C53" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="D53" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="E53" s="105">
+        <v>59.95</v>
+      </c>
+      <c r="F53" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G53" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H53" s="106">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I53" s="106">
+        <v>39.950000000000003</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" s="105" t="s">
-        <v>245</v>
-      </c>
-      <c r="E54" s="105" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="I54" s="106" t="s">
-        <v>176</v>
+      <c r="A54" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="105">
+        <v>3.99</v>
+      </c>
+      <c r="C54" s="105">
+        <v>3.99</v>
+      </c>
+      <c r="D54" s="105">
+        <v>3.99</v>
+      </c>
+      <c r="E54" s="105">
+        <v>3.99</v>
+      </c>
+      <c r="F54" s="106">
+        <v>3.99</v>
+      </c>
+      <c r="G54" s="106">
+        <v>3.99</v>
+      </c>
+      <c r="H54" s="106">
+        <v>3.99</v>
+      </c>
+      <c r="I54" s="106">
+        <v>3.99</v>
       </c>
       <c r="J54" s="84"/>
       <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B55" s="105">
-        <v>3</v>
-      </c>
-      <c r="C55" s="105">
-        <v>3</v>
-      </c>
-      <c r="D55" s="105">
-        <v>3</v>
-      </c>
-      <c r="E55" s="105">
-        <v>3</v>
-      </c>
-      <c r="F55" s="106">
-        <v>3</v>
-      </c>
-      <c r="G55" s="106">
-        <v>3</v>
-      </c>
-      <c r="H55" s="106">
-        <v>3</v>
-      </c>
-      <c r="I55" s="106">
-        <v>3</v>
+      <c r="A55" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" s="104" t="s">
+        <v>183</v>
       </c>
       <c r="J55" s="84"/>
       <c r="K55" s="84"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E56" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I56" s="106" t="s">
-        <v>214</v>
+      <c r="A56" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="104" t="s">
+        <v>185</v>
       </c>
       <c r="J56" s="84"/>
       <c r="K56" s="84"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="B57" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="C57" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="D57" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="E57" s="107">
-        <v>59.95</v>
-      </c>
-      <c r="F57" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G57" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H57" s="108">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I57" s="108">
-        <v>39.950000000000003</v>
+      <c r="A57" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="H57" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="104" t="s">
+        <v>106</v>
       </c>
       <c r="J57" s="84"/>
       <c r="K57" s="84"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="104" t="s">
-        <v>181</v>
+      <c r="A58" s="96" t="s">
+        <v>187</v>
       </c>
       <c r="B58" s="107">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="C58" s="107">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="D58" s="107">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="E58" s="107">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="F58" s="108">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="G58" s="108">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="H58" s="108">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="I58" s="108">
-        <v>3.99</v>
+        <v>3</v>
       </c>
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="G59" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="I59" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="J59" s="84"/>
-      <c r="K59" s="84"/>
+      <c r="A59" s="116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="117" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="105" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="H60" s="106" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="106" t="s">
-        <v>185</v>
+      <c r="A60" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="106" t="s">
-        <v>106</v>
+      <c r="A61" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H61" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="109">
-        <v>3</v>
-      </c>
-      <c r="C62" s="109">
-        <v>3</v>
-      </c>
-      <c r="D62" s="109">
-        <v>3</v>
-      </c>
-      <c r="E62" s="109">
-        <v>3</v>
-      </c>
-      <c r="F62" s="110">
-        <v>3</v>
-      </c>
-      <c r="G62" s="110">
-        <v>3</v>
-      </c>
-      <c r="H62" s="110">
-        <v>3</v>
-      </c>
-      <c r="I62" s="110">
-        <v>3</v>
+      <c r="A62" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I62" s="104" t="s">
+        <v>214</v>
       </c>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="B63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="H63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="I63" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="J63" s="119" t="s">
-        <v>214</v>
-      </c>
-      <c r="K63" s="119" t="s">
-        <v>214</v>
-      </c>
+      <c r="A63" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="104" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E64" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G64" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H64" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64" s="106" t="s">
+      <c r="A64" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E65" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G65" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I65" s="106" t="s">
+      <c r="A65" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H66" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I66" s="106" t="s">
+      <c r="A66" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I66" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I67" s="106" t="s">
+      <c r="A67" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="104" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H68" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I68" s="106" t="s">
+      <c r="A68" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I68" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="B69" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E69" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H69" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I69" s="106" t="s">
+      <c r="A69" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="104" t="s">
-        <v>195</v>
-      </c>
-      <c r="B70" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="106" t="s">
+      <c r="A70" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H71" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="106" t="s">
+      <c r="A71" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="B72" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G72" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="106" t="s">
+      <c r="A72" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J72" s="84"/>
       <c r="K72" s="84"/>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="B73" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="106" t="s">
+      <c r="A73" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="B74" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H74" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" s="106" t="s">
+      <c r="A74" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H74" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I74" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J74" s="84"/>
       <c r="K74" s="84"/>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E75" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G75" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I75" s="106" t="s">
+      <c r="A75" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H75" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J75" s="84"/>
       <c r="K75" s="84"/>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G76" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H76" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="106" t="s">
+      <c r="A76" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
     </row>
     <row r="77" spans="1:11" ht="15.75">
-      <c r="A77" s="104" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F77" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G77" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H77" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I77" s="106" t="s">
+      <c r="A77" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I77" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75">
-      <c r="A78" s="104" t="s">
-        <v>203</v>
-      </c>
-      <c r="B78" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F78" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="106" t="s">
+    <row r="78" spans="1:11" ht="31.5">
+      <c r="A78" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="84"/>
       <c r="K78" s="84"/>
     </row>
     <row r="79" spans="1:11" ht="15.75">
-      <c r="A79" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="B79" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G79" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="106" t="s">
+      <c r="A79" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J79" s="84"/>
       <c r="K79" s="84"/>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B80" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H80" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I80" s="106" t="s">
+      <c r="A80" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="104" t="s">
-        <v>206</v>
-      </c>
-      <c r="B81" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G81" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="106" t="s">
+      <c r="A81" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
     </row>
-    <row r="82" spans="1:11" ht="31.5">
-      <c r="A82" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C82" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G82" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H82" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="106" t="s">
+    <row r="82" spans="1:11" ht="15.75">
+      <c r="A82" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H82" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J82" s="84"/>
       <c r="K82" s="84"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="104" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G83" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H83" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I83" s="106" t="s">
+      <c r="A83" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J83" s="84"/>
       <c r="K83" s="84"/>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="104" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H84" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" s="106" t="s">
+      <c r="A84" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J84" s="84"/>
       <c r="K84" s="84"/>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G85" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="106" t="s">
+      <c r="A85" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H85" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75">
-      <c r="A86" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H86" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" s="106" t="s">
+    <row r="86" spans="1:11" ht="31.5">
+      <c r="A86" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
     </row>
     <row r="87" spans="1:11" ht="15.75">
-      <c r="A87" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G87" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H87" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I87" s="106" t="s">
+      <c r="A87" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75">
-      <c r="A88" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H88" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="106" t="s">
+    <row r="88" spans="1:11" ht="31.5">
+      <c r="A88" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="104" t="s">
-        <v>248</v>
-      </c>
-      <c r="B89" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G89" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H89" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="106" t="s">
+      <c r="A89" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B89" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J89" s="84"/>
       <c r="K89" s="84"/>
     </row>
     <row r="90" spans="1:11" ht="31.5">
-      <c r="A90" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H90" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I90" s="106" t="s">
+      <c r="A90" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F91" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G91" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H91" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" s="106" t="s">
+      <c r="A91" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J91" s="84"/>
       <c r="K91" s="84"/>
     </row>
-    <row r="92" spans="1:11" ht="31.5">
-      <c r="A92" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C92" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G92" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="106" t="s">
+    <row r="92" spans="1:11" ht="15.75">
+      <c r="A92" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J92" s="84"/>
       <c r="K92" s="84"/>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="104" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G93" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H93" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="106" t="s">
+      <c r="A93" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J93" s="84"/>
       <c r="K93" s="84"/>
     </row>
-    <row r="94" spans="1:11" ht="31.5">
-      <c r="A94" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E94" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H94" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I94" s="106" t="s">
+    <row r="94" spans="1:11" ht="15.75">
+      <c r="A94" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H94" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J94" s="84"/>
       <c r="K94" s="84"/>
     </row>
     <row r="95" spans="1:11" ht="15.75">
-      <c r="A95" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="B95" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E95" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G95" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H95" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="106" t="s">
+      <c r="A95" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I95" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J95" s="84"/>
       <c r="K95" s="84"/>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F96" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H96" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="106" t="s">
+      <c r="A96" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I96" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J96" s="84"/>
       <c r="K96" s="84"/>
     </row>
     <row r="97" spans="1:11" ht="15.75">
-      <c r="A97" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F97" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H97" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I97" s="106" t="s">
+      <c r="A97" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J97" s="84"/>
       <c r="K97" s="84"/>
     </row>
     <row r="98" spans="1:11" ht="15.75">
-      <c r="A98" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G98" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H98" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I98" s="106" t="s">
+      <c r="A98" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H98" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I98" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J98" s="84"/>
       <c r="K98" s="84"/>
     </row>
     <row r="99" spans="1:11" ht="15.75">
-      <c r="A99" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H99" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I99" s="106" t="s">
+      <c r="A99" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H99" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J99" s="84"/>
       <c r="K99" s="84"/>
     </row>
     <row r="100" spans="1:11" ht="15.75">
-      <c r="A100" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G100" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H100" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="106" t="s">
+      <c r="A100" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J100" s="84"/>
       <c r="K100" s="84"/>
     </row>
     <row r="101" spans="1:11" ht="15.75">
-      <c r="A101" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G101" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I101" s="106" t="s">
+      <c r="A101" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J101" s="84"/>
       <c r="K101" s="84"/>
     </row>
     <row r="102" spans="1:11" ht="15.75">
-      <c r="A102" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G102" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H102" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I102" s="106" t="s">
+      <c r="A102" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H102" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I102" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J102" s="84"/>
       <c r="K102" s="84"/>
     </row>
     <row r="103" spans="1:11" ht="15.75">
-      <c r="A103" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H103" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I103" s="106" t="s">
+      <c r="A103" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B103" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J103" s="84"/>
       <c r="K103" s="84"/>
     </row>
     <row r="104" spans="1:11" ht="15.75">
-      <c r="A104" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G104" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H104" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I104" s="106" t="s">
+      <c r="A104" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="I104" s="104" t="s">
         <v>214</v>
       </c>
       <c r="J104" s="84"/>
       <c r="K104" s="84"/>
     </row>
     <row r="105" spans="1:11" ht="15.75">
-      <c r="A105" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E105" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F105" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G105" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H105" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I105" s="106" t="s">
-        <v>214</v>
-      </c>
+      <c r="A105" s="118"/>
+      <c r="B105" s="119"/>
+      <c r="C105" s="119"/>
+      <c r="D105" s="119"/>
+      <c r="E105" s="119"/>
+      <c r="F105" s="119"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119"/>
+      <c r="I105" s="119"/>
       <c r="J105" s="84"/>
       <c r="K105" s="84"/>
     </row>
     <row r="106" spans="1:11" ht="15.75">
-      <c r="A106" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E106" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F106" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G106" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H106" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I106" s="106" t="s">
-        <v>214</v>
-      </c>
+      <c r="A106" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="91"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="91"/>
+      <c r="F106" s="91"/>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="91"/>
       <c r="J106" s="84"/>
       <c r="K106" s="84"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75">
-      <c r="A107" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D107" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G107" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H107" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I107" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="J107" s="84"/>
-      <c r="K107" s="84"/>
-    </row>
-    <row r="108" spans="1:11" ht="15.75">
-      <c r="A108" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D108" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" s="105" t="s">
-        <v>214</v>
-      </c>
-      <c r="F108" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="G108" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="H108" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="I108" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="J108" s="84"/>
-      <c r="K108" s="84"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.75">
-      <c r="A109" s="120"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="121"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="121"/>
-      <c r="G109" s="121"/>
-      <c r="H109" s="121"/>
-      <c r="I109" s="121"/>
-      <c r="J109" s="84"/>
-      <c r="K109" s="84"/>
-    </row>
-    <row r="110" spans="1:11" ht="15.75">
-      <c r="A110" s="120" t="s">
-        <v>213</v>
-      </c>
-      <c r="B110" s="93"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="93"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
-      <c r="G110" s="93"/>
-      <c r="H110" s="93"/>
-      <c r="I110" s="93"/>
-      <c r="J110" s="84"/>
-      <c r="K110" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8309,16 +8175,8 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{EE266D26-D291-42AB-A8C9-483E898AA705}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{94C467F4-75AC-4BDF-AFEB-2365A0992B12}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{DC72881A-0AFF-444B-99E4-02BC607EB58E}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{E6700BBC-1CFF-4BBA-8BEC-FAE1FE95B2AD}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{C593AA33-10F1-47D4-966D-E3AF0E24B333}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{EA1480D0-9A01-4FB9-A2DC-8D07098CD171}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{EC3861E2-3CB9-4065-B065-E43614CFA48A}"/>
-    <hyperlink ref="A6" r:id="rId9" xr:uid="{D285993C-9FD0-42B8-A344-A1455506FA6A}"/>
-    <hyperlink ref="B6" r:id="rId10" xr:uid="{A59C2F99-75D0-459A-A5E7-E10C171FA57F}"/>
-    <hyperlink ref="A7" r:id="rId11" xr:uid="{AEDC5ADE-830A-4F32-82DA-5BF4731FD04F}"/>
-    <hyperlink ref="B7" r:id="rId12" xr:uid="{173F64FC-EBDD-4996-BD54-7A6F87D268D5}"/>
-    <hyperlink ref="A8" r:id="rId13" xr:uid="{1635C39E-55DD-4003-A258-9562A10E1833}"/>
-    <hyperlink ref="B8" r:id="rId14" xr:uid="{F70D572F-1F7B-4DF3-B2D8-7D53F9EF1A7E}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{1635C39E-55DD-4003-A258-9562A10E1833}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{F70D572F-1F7B-4DF3-B2D8-7D53F9EF1A7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA2928EC-7070-4E91-BCC4-A84FF5193E88}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA55E8D7-7146-4E3A-ABBB-00F976B8C51B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="254">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -676,6 +676,18 @@
   </si>
   <si>
     <t> </t>
+  </si>
+  <si>
+    <t> https://www.westmorebeauty.com/campaign/deluxe20off-holiday</t>
+  </si>
+  <si>
+    <t>https://www.westmorebeauty.com/?src=lf_no_prp_deluxe20off_holiday</t>
+  </si>
+  <si>
+    <t> deluxe20off-holiday</t>
+  </si>
+  <si>
+    <t> lf_no_prp_deluxe20off_holiday</t>
   </si>
   <si>
     <t xml:space="preserve">Body Coverage Starter Kit </t>
@@ -1245,7 +1257,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1502,9 +1514,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1514,12 +1523,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1615,6 +1618,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2240,8 +2246,8 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="58"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="120"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
       <c r="F10" s="60"/>
@@ -2416,22 +2422,22 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
     </row>
     <row r="17" spans="1:14" s="38" customFormat="1" ht="15.75">
       <c r="A17" s="6" t="s">
@@ -4092,21 +4098,21 @@
       <c r="N61" s="17"/>
     </row>
     <row r="62" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
-      <c r="M62" s="123"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="119"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="120"/>
     </row>
     <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="28" t="s">
@@ -4968,7 +4974,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5117,40 +5123,48 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="93" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="B5" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="A6" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>214</v>
       </c>
       <c r="E6" s="84"/>
@@ -5175,62 +5189,62 @@
       <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="98" t="s">
+      <c r="I8" s="95" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="97">
         <v>1</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="97">
         <v>1</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="97">
         <v>1</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="97">
         <v>1</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="98">
         <v>2</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="98">
         <v>2</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="98">
         <v>2</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="98">
         <v>2</v>
       </c>
       <c r="J9" s="86" t="s">
@@ -5241,2931 +5255,2931 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="104" t="s">
-        <v>216</v>
+      <c r="F10" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="101" t="s">
+        <v>220</v>
       </c>
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="H11" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="101" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="F12" s="104" t="s">
+      <c r="B12" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="101" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="103" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="104" t="s">
+      <c r="B13" s="100" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="H13" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="101" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="104" t="s">
+      <c r="B14" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="101" t="s">
         <v>81</v>
       </c>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="100">
         <v>1</v>
       </c>
-      <c r="C16" s="103">
+      <c r="C16" s="100">
         <v>1</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="100">
         <v>1</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="100">
         <v>1</v>
       </c>
-      <c r="F16" s="104">
+      <c r="F16" s="101">
         <v>1</v>
       </c>
-      <c r="G16" s="104">
+      <c r="G16" s="101">
         <v>1</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16" s="101">
         <v>1</v>
       </c>
-      <c r="I16" s="104">
+      <c r="I16" s="101">
         <v>1</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="105">
+      <c r="B17" s="102">
         <v>59.95</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="102">
         <v>59.95</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="102">
         <v>59.95</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="102">
         <v>59.95</v>
       </c>
-      <c r="F17" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="104" t="s">
+      <c r="F17" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H17" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="105">
+      <c r="B18" s="102">
         <v>47.96</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="102">
         <v>47.96</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="102">
         <v>47.96</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="102">
         <v>47.96</v>
       </c>
-      <c r="F18" s="106">
+      <c r="F18" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="G18" s="106">
+      <c r="G18" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="H18" s="106">
+      <c r="H18" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="103">
         <v>39.950000000000003</v>
       </c>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="105">
+      <c r="B19" s="102">
         <v>0</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C19" s="100">
         <v>0</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="102">
         <v>0</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="102">
         <v>0</v>
       </c>
-      <c r="F19" s="106">
+      <c r="F19" s="103">
         <v>0</v>
       </c>
-      <c r="G19" s="106">
+      <c r="G19" s="103">
         <v>0</v>
       </c>
-      <c r="H19" s="106">
+      <c r="H19" s="103">
         <v>0</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="103">
         <v>0</v>
       </c>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="104" t="s">
+      <c r="B20" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="H20" s="104" t="s">
+      <c r="H20" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="101" t="s">
         <v>97</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:11" ht="283.5">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="108" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="108" t="s">
-        <v>227</v>
+      <c r="B21" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="I21" s="105" t="s">
+        <v>231</v>
       </c>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="109"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:11" ht="31.5">
-      <c r="A23" s="110"/>
-      <c r="B23" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="I23" s="108" t="s">
-        <v>228</v>
+      <c r="A23" s="107"/>
+      <c r="B23" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="I23" s="105" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="300">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="111" t="s">
+      <c r="E24" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="112" t="s">
+      <c r="H24" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="112" t="s">
+      <c r="I24" s="109" t="s">
         <v>104</v>
       </c>
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="H25" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" s="104" t="s">
-        <v>229</v>
+      <c r="B25" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="101" t="s">
+        <v>233</v>
       </c>
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="104" t="s">
+      <c r="I26" s="101" t="s">
         <v>108</v>
       </c>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
     </row>
     <row r="27" spans="1:11" ht="31.5">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H27" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I27" s="104" t="s">
+      <c r="F27" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I27" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H28" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I28" s="104" t="s">
+      <c r="B28" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H28" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F29" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I29" s="104" t="s">
+      <c r="B29" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H30" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" s="104" t="s">
+      <c r="B30" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="103" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="103" t="s">
-        <v>232</v>
-      </c>
-      <c r="E31" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="F31" s="104" t="s">
+      <c r="B31" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="104" t="s">
+      <c r="H31" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="104" t="s">
+      <c r="I31" s="101" t="s">
         <v>125</v>
       </c>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="103" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="103" t="s">
-        <v>237</v>
-      </c>
-      <c r="F32" s="104" t="s">
+      <c r="B32" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="G32" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="104" t="s">
+      <c r="H32" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="104" t="s">
+      <c r="I32" s="101" t="s">
         <v>138</v>
       </c>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="105">
+      <c r="B33" s="102">
         <v>47.96</v>
       </c>
-      <c r="C33" s="105">
+      <c r="C33" s="102">
         <v>47.96</v>
       </c>
-      <c r="D33" s="105">
+      <c r="D33" s="102">
         <v>47.96</v>
       </c>
-      <c r="E33" s="105">
+      <c r="E33" s="102">
         <v>47.96</v>
       </c>
-      <c r="F33" s="106">
+      <c r="F33" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="G33" s="106">
+      <c r="G33" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="H33" s="106">
+      <c r="H33" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="103">
         <v>39.950000000000003</v>
       </c>
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="105">
+      <c r="B34" s="102">
         <v>0</v>
       </c>
-      <c r="C34" s="105">
+      <c r="C34" s="102">
         <v>0</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="102">
         <v>0</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="102">
         <v>0</v>
       </c>
-      <c r="F34" s="106">
+      <c r="F34" s="103">
         <v>0</v>
       </c>
-      <c r="G34" s="106">
+      <c r="G34" s="103">
         <v>0</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="103">
         <v>0</v>
       </c>
-      <c r="I34" s="106">
+      <c r="I34" s="103">
         <v>0</v>
       </c>
       <c r="J34" s="84"/>
       <c r="K34" s="84"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="103">
+      <c r="B35" s="100">
         <v>3</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="100">
         <v>3</v>
       </c>
-      <c r="D35" s="103">
+      <c r="D35" s="100">
         <v>3</v>
       </c>
-      <c r="E35" s="103">
+      <c r="E35" s="100">
         <v>3</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="101">
         <v>3</v>
       </c>
-      <c r="G35" s="104">
+      <c r="G35" s="101">
         <v>3</v>
       </c>
-      <c r="H35" s="104">
+      <c r="H35" s="101">
         <v>3</v>
       </c>
-      <c r="I35" s="104">
+      <c r="I35" s="101">
         <v>3</v>
       </c>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
     </row>
     <row r="36" spans="1:11" ht="31.5">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="104" t="s">
+      <c r="B36" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="104" t="s">
+      <c r="G36" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="104" t="s">
+      <c r="H36" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="104" t="s">
+      <c r="I36" s="101" t="s">
         <v>145</v>
       </c>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
     </row>
     <row r="37" spans="1:11" ht="267.75">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" s="108" t="s">
-        <v>240</v>
+      <c r="B37" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="105" t="s">
+        <v>244</v>
       </c>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
     </row>
     <row r="38" spans="1:11" ht="31.5">
-      <c r="A38" s="109"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="108" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" s="108" t="s">
-        <v>228</v>
+      <c r="A38" s="106"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="H38" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="105" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="31.5">
-      <c r="A39" s="110"/>
-      <c r="B39" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
     </row>
     <row r="40" spans="1:11" ht="300">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="103" t="s">
+      <c r="C40" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="111" t="s">
+      <c r="D40" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="111" t="s">
+      <c r="E40" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="112" t="s">
+      <c r="F40" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="G40" s="112" t="s">
+      <c r="G40" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="112" t="s">
+      <c r="I40" s="109" t="s">
         <v>151</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="102" t="s">
+      <c r="A41" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="F41" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="115" t="s">
+      <c r="B41" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G41" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="112" t="s">
         <v>214</v>
       </c>
       <c r="J41" s="84"/>
       <c r="K41" s="84"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D42" s="103" t="s">
+      <c r="D42" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="104" t="s">
+      <c r="H42" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="I42" s="104" t="s">
+      <c r="I42" s="101" t="s">
         <v>159</v>
       </c>
       <c r="J42" s="84"/>
       <c r="K42" s="84"/>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="103" t="s">
-        <v>241</v>
-      </c>
-      <c r="F43" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="H43" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="I43" s="104" t="s">
-        <v>241</v>
+      <c r="B43" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="J43" s="84"/>
       <c r="K43" s="84"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="103" t="s">
+      <c r="D44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="104" t="s">
+      <c r="G44" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="104" t="s">
+      <c r="H44" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="104" t="s">
+      <c r="I44" s="101" t="s">
         <v>108</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84"/>
     </row>
     <row r="45" spans="1:11" ht="78.75">
-      <c r="A45" s="102" t="s">
+      <c r="A45" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="103" t="s">
+      <c r="D45" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="104" t="s">
-        <v>242</v>
-      </c>
-      <c r="G45" s="104" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45" s="104" t="s">
-        <v>242</v>
-      </c>
-      <c r="I45" s="104" t="s">
-        <v>242</v>
+      <c r="F45" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="J45" s="84"/>
       <c r="K45" s="84"/>
     </row>
     <row r="46" spans="1:11" ht="31.5">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="103" t="s">
+      <c r="D46" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="F46" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G46" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H46" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I46" s="104" t="s">
+      <c r="F46" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J46" s="84"/>
       <c r="K46" s="84"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D47" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F47" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G47" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I47" s="104" t="s">
+      <c r="B47" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J47" s="84"/>
       <c r="K47" s="84"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E48" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H48" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" s="104" t="s">
+      <c r="B48" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H48" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="103" t="s">
+      <c r="C49" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="103" t="s">
+      <c r="D49" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="E49" s="103" t="s">
+      <c r="E49" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="104" t="s">
+      <c r="F49" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="104" t="s">
+      <c r="G49" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="H49" s="104" t="s">
+      <c r="H49" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="I49" s="104" t="s">
+      <c r="I49" s="101" t="s">
         <v>164</v>
       </c>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>245</v>
-      </c>
-      <c r="E50" s="103" t="s">
-        <v>246</v>
-      </c>
-      <c r="F50" s="104" t="s">
+      <c r="B50" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="104" t="s">
+      <c r="G50" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="H50" s="104" t="s">
+      <c r="H50" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="I50" s="104" t="s">
+      <c r="I50" s="101" t="s">
         <v>176</v>
       </c>
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="103">
+      <c r="B51" s="100">
         <v>3</v>
       </c>
-      <c r="C51" s="103">
+      <c r="C51" s="100">
         <v>3</v>
       </c>
-      <c r="D51" s="103">
+      <c r="D51" s="100">
         <v>3</v>
       </c>
-      <c r="E51" s="103">
+      <c r="E51" s="100">
         <v>3</v>
       </c>
-      <c r="F51" s="104">
+      <c r="F51" s="101">
         <v>3</v>
       </c>
-      <c r="G51" s="104">
+      <c r="G51" s="101">
         <v>3</v>
       </c>
-      <c r="H51" s="104">
+      <c r="H51" s="101">
         <v>3</v>
       </c>
-      <c r="I51" s="104">
+      <c r="I51" s="101">
         <v>3</v>
       </c>
       <c r="J51" s="84"/>
       <c r="K51" s="84"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H52" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="104" t="s">
+      <c r="B52" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="102" t="s">
+      <c r="A53" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="105">
+      <c r="B53" s="102">
         <v>59.95</v>
       </c>
-      <c r="C53" s="105">
+      <c r="C53" s="102">
         <v>59.95</v>
       </c>
-      <c r="D53" s="105">
+      <c r="D53" s="102">
         <v>59.95</v>
       </c>
-      <c r="E53" s="105">
+      <c r="E53" s="102">
         <v>59.95</v>
       </c>
-      <c r="F53" s="106">
+      <c r="F53" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="G53" s="106">
+      <c r="G53" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="H53" s="106">
+      <c r="H53" s="103">
         <v>39.950000000000003</v>
       </c>
-      <c r="I53" s="106">
+      <c r="I53" s="103">
         <v>39.950000000000003</v>
       </c>
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="102" t="s">
+      <c r="A54" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="102">
         <v>3.99</v>
       </c>
-      <c r="C54" s="105">
+      <c r="C54" s="102">
         <v>3.99</v>
       </c>
-      <c r="D54" s="105">
+      <c r="D54" s="102">
         <v>3.99</v>
       </c>
-      <c r="E54" s="105">
+      <c r="E54" s="102">
         <v>3.99</v>
       </c>
-      <c r="F54" s="106">
+      <c r="F54" s="103">
         <v>3.99</v>
       </c>
-      <c r="G54" s="106">
+      <c r="G54" s="103">
         <v>3.99</v>
       </c>
-      <c r="H54" s="106">
+      <c r="H54" s="103">
         <v>3.99</v>
       </c>
-      <c r="I54" s="106">
+      <c r="I54" s="103">
         <v>3.99</v>
       </c>
       <c r="J54" s="84"/>
       <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="102" t="s">
+      <c r="A55" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="103" t="s">
+      <c r="B55" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="C55" s="103" t="s">
+      <c r="C55" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="104" t="s">
+      <c r="F55" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="G55" s="104" t="s">
+      <c r="G55" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="104" t="s">
+      <c r="H55" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="104" t="s">
+      <c r="I55" s="101" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="84"/>
       <c r="K55" s="84"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="103" t="s">
+      <c r="C56" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D56" s="103" t="s">
+      <c r="D56" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="E56" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="104" t="s">
+      <c r="F56" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="104" t="s">
+      <c r="G56" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="H56" s="104" t="s">
+      <c r="H56" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="I56" s="104" t="s">
+      <c r="I56" s="101" t="s">
         <v>185</v>
       </c>
       <c r="J56" s="84"/>
       <c r="K56" s="84"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="102" t="s">
+      <c r="A57" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="103" t="s">
+      <c r="B57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="103" t="s">
+      <c r="D57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="G57" s="104" t="s">
+      <c r="G57" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="104" t="s">
+      <c r="H57" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="104" t="s">
+      <c r="I57" s="101" t="s">
         <v>106</v>
       </c>
       <c r="J57" s="84"/>
       <c r="K57" s="84"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="107">
+      <c r="B58" s="104">
         <v>3</v>
       </c>
-      <c r="C58" s="107">
+      <c r="C58" s="104">
         <v>3</v>
       </c>
-      <c r="D58" s="107">
+      <c r="D58" s="104">
         <v>3</v>
       </c>
-      <c r="E58" s="107">
+      <c r="E58" s="104">
         <v>3</v>
       </c>
-      <c r="F58" s="108">
+      <c r="F58" s="105">
         <v>3</v>
       </c>
-      <c r="G58" s="108">
+      <c r="G58" s="105">
         <v>3</v>
       </c>
-      <c r="H58" s="108">
+      <c r="H58" s="105">
         <v>3</v>
       </c>
-      <c r="I58" s="108">
+      <c r="I58" s="105">
         <v>3</v>
       </c>
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="117" t="s">
+      <c r="B59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="117" t="s">
+      <c r="C59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="117" t="s">
+      <c r="D59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="117" t="s">
+      <c r="E59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G59" s="117" t="s">
+      <c r="G59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="H59" s="117" t="s">
+      <c r="H59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="117" t="s">
+      <c r="I59" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="J59" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="K59" s="117" t="s">
+      <c r="J59" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="114" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G60" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H60" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="104" t="s">
+      <c r="B60" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G60" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="B61" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F61" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I61" s="104" t="s">
+      <c r="B61" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="102" t="s">
+      <c r="A62" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H62" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" s="104" t="s">
+      <c r="B62" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E62" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I62" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="102" t="s">
+      <c r="A63" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C63" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H63" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I63" s="104" t="s">
+      <c r="B63" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E64" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G64" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H64" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I64" s="104" t="s">
+      <c r="B64" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G64" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H64" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="102" t="s">
+      <c r="A65" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E65" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G65" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I65" s="104" t="s">
+      <c r="B65" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="102" t="s">
+      <c r="A66" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H66" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I66" s="104" t="s">
+      <c r="B66" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F66" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I66" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C67" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D67" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H67" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I67" s="104" t="s">
+      <c r="B67" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F67" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C68" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D68" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F68" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H68" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I68" s="104" t="s">
+      <c r="B68" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F68" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H68" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I68" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="102" t="s">
+      <c r="A69" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D69" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E69" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F69" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H69" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I69" s="104" t="s">
+      <c r="B69" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F70" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H70" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="104" t="s">
+      <c r="B70" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F70" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H70" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I70" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F71" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H71" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="104" t="s">
+      <c r="B71" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H71" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="102" t="s">
+      <c r="A72" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G72" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="104" t="s">
+      <c r="B72" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J72" s="84"/>
       <c r="K72" s="84"/>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C73" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G73" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H73" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="104" t="s">
+      <c r="B73" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H73" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="102" t="s">
+      <c r="A74" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F74" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G74" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H74" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" s="104" t="s">
+      <c r="B74" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F74" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G74" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H74" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I74" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J74" s="84"/>
       <c r="K74" s="84"/>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="102" t="s">
+      <c r="A75" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="B75" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E75" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F75" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G75" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I75" s="104" t="s">
+      <c r="B75" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F75" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H75" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J75" s="84"/>
       <c r="K75" s="84"/>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="B76" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E76" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G76" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H76" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" s="104" t="s">
+      <c r="B76" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
     </row>
     <row r="77" spans="1:11" ht="15.75">
-      <c r="A77" s="102" t="s">
+      <c r="A77" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="B77" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F77" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G77" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H77" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I77" s="104" t="s">
+      <c r="B77" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H77" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I77" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
     </row>
     <row r="78" spans="1:11" ht="31.5">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D78" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F78" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G78" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I78" s="104" t="s">
+      <c r="B78" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="84"/>
       <c r="K78" s="84"/>
     </row>
     <row r="79" spans="1:11" ht="15.75">
-      <c r="A79" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F79" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G79" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H79" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I79" s="104" t="s">
+      <c r="A79" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="B79" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H79" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J79" s="84"/>
       <c r="K79" s="84"/>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E80" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G80" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H80" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I80" s="104" t="s">
+      <c r="B80" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C81" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G81" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H81" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="104" t="s">
+      <c r="B81" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H81" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
     </row>
     <row r="82" spans="1:11" ht="15.75">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C82" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G82" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H82" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="104" t="s">
+      <c r="B82" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H82" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J82" s="84"/>
       <c r="K82" s="84"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="102" t="s">
+      <c r="A83" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E83" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G83" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H83" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I83" s="104" t="s">
+      <c r="B83" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C83" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H83" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J83" s="84"/>
       <c r="K83" s="84"/>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="102" t="s">
+      <c r="A84" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E84" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H84" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" s="104" t="s">
+      <c r="B84" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F84" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J84" s="84"/>
       <c r="K84" s="84"/>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="B85" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F85" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G85" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="104" t="s">
+      <c r="A85" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G85" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H85" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
     </row>
     <row r="86" spans="1:11" ht="31.5">
-      <c r="A86" s="102" t="s">
+      <c r="A86" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="B86" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H86" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" s="104" t="s">
+      <c r="B86" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G86" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
     </row>
     <row r="87" spans="1:11" ht="15.75">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="B87" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G87" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H87" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I87" s="104" t="s">
+      <c r="B87" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
     </row>
     <row r="88" spans="1:11" ht="31.5">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C88" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F88" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G88" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H88" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="104" t="s">
+      <c r="B88" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F88" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="B89" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E89" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F89" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G89" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H89" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="104" t="s">
+      <c r="B89" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J89" s="84"/>
       <c r="K89" s="84"/>
     </row>
     <row r="90" spans="1:11" ht="31.5">
-      <c r="A90" s="102" t="s">
+      <c r="A90" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="B90" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H90" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I90" s="104" t="s">
+      <c r="B90" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G90" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="102" t="s">
+      <c r="A91" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B91" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C91" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F91" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G91" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H91" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" s="104" t="s">
+      <c r="B91" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J91" s="84"/>
       <c r="K91" s="84"/>
     </row>
     <row r="92" spans="1:11" ht="15.75">
-      <c r="A92" s="102" t="s">
+      <c r="A92" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C92" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G92" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H92" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="104" t="s">
+      <c r="B92" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H92" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J92" s="84"/>
       <c r="K92" s="84"/>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E93" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G93" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H93" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="104" t="s">
+      <c r="B93" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F93" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J93" s="84"/>
       <c r="K93" s="84"/>
     </row>
     <row r="94" spans="1:11" ht="15.75">
-      <c r="A94" s="102" t="s">
+      <c r="A94" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D94" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E94" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F94" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H94" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I94" s="104" t="s">
+      <c r="B94" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H94" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J94" s="84"/>
       <c r="K94" s="84"/>
     </row>
     <row r="95" spans="1:11" ht="15.75">
-      <c r="A95" s="102" t="s">
+      <c r="A95" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E95" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F95" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G95" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H95" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="104" t="s">
+      <c r="B95" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I95" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J95" s="84"/>
       <c r="K95" s="84"/>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="102" t="s">
+      <c r="A96" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B96" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D96" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E96" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F96" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G96" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H96" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="104" t="s">
+      <c r="B96" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E96" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F96" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I96" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J96" s="84"/>
       <c r="K96" s="84"/>
     </row>
     <row r="97" spans="1:11" ht="15.75">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D97" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E97" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F97" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H97" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I97" s="104" t="s">
+      <c r="B97" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J97" s="84"/>
       <c r="K97" s="84"/>
     </row>
     <row r="98" spans="1:11" ht="15.75">
-      <c r="A98" s="102" t="s">
+      <c r="A98" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E98" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F98" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G98" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H98" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I98" s="104" t="s">
+      <c r="B98" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E98" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F98" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H98" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I98" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J98" s="84"/>
       <c r="K98" s="84"/>
     </row>
     <row r="99" spans="1:11" ht="15.75">
-      <c r="A99" s="102" t="s">
+      <c r="A99" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E99" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G99" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H99" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I99" s="104" t="s">
+      <c r="B99" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F99" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H99" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J99" s="84"/>
       <c r="K99" s="84"/>
     </row>
     <row r="100" spans="1:11" ht="15.75">
-      <c r="A100" s="102" t="s">
+      <c r="A100" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B100" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E100" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F100" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G100" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H100" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="104" t="s">
+      <c r="B100" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E100" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F100" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H100" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J100" s="84"/>
       <c r="K100" s="84"/>
     </row>
     <row r="101" spans="1:11" ht="15.75">
-      <c r="A101" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="B101" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D101" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F101" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G101" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I101" s="104" t="s">
+      <c r="A101" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B101" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E101" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J101" s="84"/>
       <c r="K101" s="84"/>
     </row>
     <row r="102" spans="1:11" ht="15.75">
-      <c r="A102" s="102" t="s">
+      <c r="A102" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="B102" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G102" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H102" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I102" s="104" t="s">
+      <c r="B102" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E102" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F102" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H102" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I102" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J102" s="84"/>
       <c r="K102" s="84"/>
     </row>
     <row r="103" spans="1:11" ht="15.75">
-      <c r="A103" s="102" t="s">
+      <c r="A103" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D103" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F103" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H103" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I103" s="104" t="s">
+      <c r="B103" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J103" s="84"/>
       <c r="K103" s="84"/>
     </row>
     <row r="104" spans="1:11" ht="15.75">
-      <c r="A104" s="102" t="s">
+      <c r="A104" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B104" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="F104" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="G104" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H104" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="I104" s="104" t="s">
+      <c r="B104" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I104" s="101" t="s">
         <v>214</v>
       </c>
       <c r="J104" s="84"/>
       <c r="K104" s="84"/>
     </row>
     <row r="105" spans="1:11" ht="15.75">
-      <c r="A105" s="118"/>
-      <c r="B105" s="119"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="119"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="119"/>
-      <c r="I105" s="119"/>
+      <c r="A105" s="115"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="116"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="116"/>
+      <c r="H105" s="116"/>
+      <c r="I105" s="116"/>
       <c r="J105" s="84"/>
       <c r="K105" s="84"/>
     </row>
     <row r="106" spans="1:11" ht="15.75">
-      <c r="A106" s="118" t="s">
+      <c r="A106" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="91"/>
-      <c r="C106" s="91"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="91"/>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="91"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="90"/>
+      <c r="E106" s="90"/>
+      <c r="F106" s="90"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
       <c r="J106" s="84"/>
       <c r="K106" s="84"/>
     </row>
@@ -8177,6 +8191,7 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{DC72881A-0AFF-444B-99E4-02BC607EB58E}"/>
     <hyperlink ref="A4" r:id="rId5" xr:uid="{1635C39E-55DD-4003-A258-9562A10E1833}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{F70D572F-1F7B-4DF3-B2D8-7D53F9EF1A7E}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{68D1D891-FEA2-4DC4-AFEB-D801155FF5B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8192,12 +8207,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -8362,14 +8371,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{979F2D57-FE0F-4205-96E6-0F4FF7DE7C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EA55E8D7-7146-4E3A-ABBB-00F976B8C51B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\WestmoreBeauty\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4C463-ED3B-4962-B39B-661F261CF747}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
     <sheet name="deluxe20off - shade treatment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="256">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -793,6 +798,12 @@
   </si>
   <si>
     <t>Continuity Pricing</t>
+  </si>
+  <si>
+    <t>WY2A0881</t>
+  </si>
+  <si>
+    <t>WY2A0891</t>
   </si>
 </sst>
 </file>
@@ -804,7 +815,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,6 +1615,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,9 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1940,11 +1951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="54.28515625" style="9" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" style="9" customWidth="1"/>
@@ -1961,7 +1970,7 @@
     <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="43" customFormat="1">
+    <row r="1" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>22</v>
       </c>
@@ -2122,7 +2131,7 @@
       </c>
       <c r="O5" s="33"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="38" customFormat="1">
+    <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>29</v>
       </c>
@@ -2216,7 +2225,7 @@
       </c>
       <c r="J8" s="72"/>
     </row>
-    <row r="9" spans="1:15" ht="30">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2253,7 @@
       <c r="I9" s="67"/>
       <c r="J9" s="66"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="117"/>
       <c r="C10" s="117"/>
@@ -2252,8 +2261,8 @@
       <c r="E10" s="59"/>
       <c r="F10" s="60"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1"/>
-    <row r="12" spans="1:15" ht="31.5">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>35</v>
       </c>
@@ -2295,7 +2304,7 @@
       </c>
       <c r="N12" s="37"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
@@ -2379,7 +2388,7 @@
       </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.75">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
@@ -2421,25 +2430,25 @@
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
-      <c r="A16" s="121" t="s">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-    </row>
-    <row r="17" spans="1:14" s="38" customFormat="1" ht="15.75">
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+    </row>
+    <row r="17" spans="1:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -2523,7 +2532,7 @@
       </c>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -2590,7 +2599,9 @@
       <c r="H20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="J20" s="11" t="s">
         <v>76</v>
       </c>
@@ -2600,10 +2611,12 @@
       <c r="L20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -2621,7 +2634,7 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -2663,7 +2676,7 @@
       </c>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -2705,7 +2718,7 @@
       </c>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" s="39" customFormat="1" ht="15.75">
+    <row r="24" spans="1:14" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>83</v>
       </c>
@@ -2735,7 +2748,7 @@
       <c r="M24" s="61"/>
       <c r="N24" s="61"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
@@ -2777,7 +2790,7 @@
       </c>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>85</v>
       </c>
@@ -2819,7 +2832,7 @@
       </c>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -2861,7 +2874,7 @@
       </c>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" ht="220.5">
+    <row r="28" spans="1:14" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -2903,7 +2916,7 @@
       </c>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14" ht="189">
+    <row r="29" spans="1:14" ht="189" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>102</v>
       </c>
@@ -2945,7 +2958,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>105</v>
       </c>
@@ -2987,7 +3000,7 @@
       </c>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
@@ -3029,7 +3042,7 @@
       </c>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="31.5">
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -3059,7 +3072,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75">
+    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -3077,7 +3090,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75">
+    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -3095,7 +3108,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75">
+    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -3113,7 +3126,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
@@ -3155,7 +3168,7 @@
       </c>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
@@ -3197,7 +3210,7 @@
       </c>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" s="39" customFormat="1" ht="15.75">
+    <row r="38" spans="1:14" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>140</v>
       </c>
@@ -3239,7 +3252,7 @@
       </c>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
@@ -3281,7 +3294,7 @@
       </c>
       <c r="N39" s="16"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
@@ -3323,7 +3336,7 @@
       </c>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -3365,7 +3378,7 @@
       </c>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="1:14" ht="220.5">
+    <row r="42" spans="1:14" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>146</v>
       </c>
@@ -3407,7 +3420,7 @@
       </c>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14" ht="189">
+    <row r="43" spans="1:14" ht="189" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>149</v>
       </c>
@@ -3449,7 +3462,7 @@
       </c>
       <c r="N43" s="20"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75">
+    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
@@ -3467,7 +3480,7 @@
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>153</v>
       </c>
@@ -3509,7 +3522,7 @@
       </c>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>154</v>
       </c>
@@ -3527,7 +3540,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="47.25">
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>155</v>
       </c>
@@ -3569,7 +3582,7 @@
       </c>
       <c r="N47" s="15"/>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>158</v>
       </c>
@@ -3611,7 +3624,7 @@
       </c>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14" ht="31.5">
+    <row r="49" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>160</v>
       </c>
@@ -3641,7 +3654,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75">
+    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>161</v>
       </c>
@@ -3683,7 +3696,7 @@
       </c>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75">
+    <row r="51" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -3701,7 +3714,7 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75">
+    <row r="52" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>163</v>
       </c>
@@ -3743,7 +3756,7 @@
       </c>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75">
+    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>165</v>
       </c>
@@ -3785,7 +3798,7 @@
       </c>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>178</v>
       </c>
@@ -3827,7 +3840,7 @@
       </c>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>179</v>
       </c>
@@ -3845,7 +3858,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" s="39" customFormat="1" ht="15.75">
+    <row r="56" spans="1:14" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>180</v>
       </c>
@@ -3887,7 +3900,7 @@
       </c>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75">
+    <row r="57" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>181</v>
       </c>
@@ -3929,7 +3942,7 @@
       </c>
       <c r="N57" s="15"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75">
+    <row r="58" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>182</v>
       </c>
@@ -3971,7 +3984,7 @@
       </c>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75">
+    <row r="59" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>184</v>
       </c>
@@ -4013,7 +4026,7 @@
       </c>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75">
+    <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>186</v>
       </c>
@@ -4055,7 +4068,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75">
+    <row r="61" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>187</v>
       </c>
@@ -4097,24 +4110,24 @@
       </c>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A62" s="118" t="s">
+    <row r="62" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="119"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="120"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75">
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="121"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>189</v>
       </c>
@@ -4132,7 +4145,7 @@
       <c r="M63" s="31"/>
       <c r="N63" s="31"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75">
+    <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -4150,7 +4163,7 @@
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75">
+    <row r="65" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -4168,7 +4181,7 @@
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75">
+    <row r="66" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>192</v>
       </c>
@@ -4186,7 +4199,7 @@
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75">
+    <row r="67" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>193</v>
       </c>
@@ -4204,7 +4217,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75">
+    <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>194</v>
       </c>
@@ -4222,7 +4235,7 @@
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75">
+    <row r="69" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>195</v>
       </c>
@@ -4240,7 +4253,7 @@
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75">
+    <row r="70" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>196</v>
       </c>
@@ -4258,7 +4271,7 @@
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75">
+    <row r="71" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>197</v>
       </c>
@@ -4276,7 +4289,7 @@
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75">
+    <row r="72" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>198</v>
       </c>
@@ -4294,7 +4307,7 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75">
+    <row r="73" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>199</v>
       </c>
@@ -4312,7 +4325,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75">
+    <row r="74" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>200</v>
       </c>
@@ -4330,7 +4343,7 @@
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75">
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>201</v>
       </c>
@@ -4348,7 +4361,7 @@
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75">
+    <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>202</v>
       </c>
@@ -4366,7 +4379,7 @@
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75">
+    <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
@@ -4384,7 +4397,7 @@
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75">
+    <row r="78" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>204</v>
       </c>
@@ -4402,7 +4415,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75">
+    <row r="79" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>205</v>
       </c>
@@ -4420,7 +4433,7 @@
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75">
+    <row r="80" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>206</v>
       </c>
@@ -4438,7 +4451,7 @@
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75">
+    <row r="81" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>207</v>
       </c>
@@ -4456,7 +4469,7 @@
       <c r="M81" s="12"/>
       <c r="N81" s="12"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75">
+    <row r="82" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>114</v>
       </c>
@@ -4474,7 +4487,7 @@
       <c r="M82" s="12"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75">
+    <row r="83" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>208</v>
       </c>
@@ -4492,7 +4505,7 @@
       <c r="M83" s="12"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75">
+    <row r="84" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>209</v>
       </c>
@@ -4510,7 +4523,7 @@
       <c r="M84" s="12"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75">
+    <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>210</v>
       </c>
@@ -4528,7 +4541,7 @@
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75">
+    <row r="86" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>140</v>
       </c>
@@ -4546,7 +4559,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75">
+    <row r="87" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>141</v>
       </c>
@@ -4564,7 +4577,7 @@
       <c r="M87" s="12"/>
       <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75">
+    <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>127</v>
       </c>
@@ -4582,7 +4595,7 @@
       <c r="M88" s="12"/>
       <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75">
+    <row r="89" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>143</v>
       </c>
@@ -4600,7 +4613,7 @@
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75">
+    <row r="90" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>146</v>
       </c>
@@ -4618,7 +4631,7 @@
       <c r="M90" s="12"/>
       <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75">
+    <row r="91" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>149</v>
       </c>
@@ -4636,7 +4649,7 @@
       <c r="M91" s="12"/>
       <c r="N91" s="12"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75">
+    <row r="92" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>211</v>
       </c>
@@ -4654,7 +4667,7 @@
       <c r="M92" s="12"/>
       <c r="N92" s="12"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75">
+    <row r="93" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>212</v>
       </c>
@@ -4672,7 +4685,7 @@
       <c r="M93" s="12"/>
       <c r="N93" s="12"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75">
+    <row r="94" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>153</v>
       </c>
@@ -4690,7 +4703,7 @@
       <c r="M94" s="12"/>
       <c r="N94" s="12"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75">
+    <row r="95" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>154</v>
       </c>
@@ -4708,7 +4721,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="12"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75">
+    <row r="96" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>155</v>
       </c>
@@ -4726,7 +4739,7 @@
       <c r="M96" s="12"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75">
+    <row r="97" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>158</v>
       </c>
@@ -4744,7 +4757,7 @@
       <c r="M97" s="12"/>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75">
+    <row r="98" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>160</v>
       </c>
@@ -4762,7 +4775,7 @@
       <c r="M98" s="12"/>
       <c r="N98" s="12"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75">
+    <row r="99" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>161</v>
       </c>
@@ -4780,7 +4793,7 @@
       <c r="M99" s="12"/>
       <c r="N99" s="12"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75">
+    <row r="100" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>165</v>
       </c>
@@ -4798,7 +4811,7 @@
       <c r="M100" s="12"/>
       <c r="N100" s="12"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75">
+    <row r="101" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>162</v>
       </c>
@@ -4816,7 +4829,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="12"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75">
+    <row r="102" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>163</v>
       </c>
@@ -4834,7 +4847,7 @@
       <c r="M102" s="12"/>
       <c r="N102" s="12"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75">
+    <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -4852,7 +4865,7 @@
       <c r="M103" s="12"/>
       <c r="N103" s="12"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75">
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>180</v>
       </c>
@@ -4870,7 +4883,7 @@
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75">
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>181</v>
       </c>
@@ -4888,7 +4901,7 @@
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75">
+    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>182</v>
       </c>
@@ -4906,7 +4919,7 @@
       <c r="M106" s="12"/>
       <c r="N106" s="12"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75">
+    <row r="107" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>184</v>
       </c>
@@ -4924,7 +4937,7 @@
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75">
+    <row r="108" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>213</v>
       </c>
@@ -4973,11 +4986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC46A34-9271-4016-8947-DDFFA1A0A1CA}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" style="40" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" style="40" customWidth="1"/>
@@ -4991,7 +5004,7 @@
     <col min="10" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -5026,7 +5039,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>10</v>
       </c>
@@ -5057,7 +5070,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="84"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5101,7 @@
       <c r="J3" s="84"/>
       <c r="K3" s="84"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>29</v>
       </c>
@@ -5123,11 +5136,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="118" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -5154,7 +5167,7 @@
       <c r="J5" s="84"/>
       <c r="K5" s="84"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
         <v>214</v>
       </c>
@@ -5175,7 +5188,7 @@
       <c r="J6" s="84"/>
       <c r="K6" s="84"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -5188,7 +5201,7 @@
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
     </row>
-    <row r="8" spans="1:11" ht="31.5" customHeight="1">
+    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
         <v>35</v>
       </c>
@@ -5219,7 +5232,7 @@
       <c r="J8" s="84"/>
       <c r="K8" s="84"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>61</v>
       </c>
@@ -5254,7 +5267,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5">
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
         <v>48</v>
       </c>
@@ -5285,7 +5298,7 @@
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>62</v>
       </c>
@@ -5316,7 +5329,7 @@
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
         <v>65</v>
       </c>
@@ -5347,7 +5360,7 @@
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
         <v>68</v>
       </c>
@@ -5378,7 +5391,7 @@
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
         <v>79</v>
       </c>
@@ -5409,7 +5422,7 @@
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
         <v>80</v>
       </c>
@@ -5440,7 +5453,7 @@
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
         <v>82</v>
       </c>
@@ -5471,7 +5484,7 @@
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
         <v>83</v>
       </c>
@@ -5502,7 +5515,7 @@
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
         <v>84</v>
       </c>
@@ -5533,7 +5546,7 @@
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>85</v>
       </c>
@@ -5564,7 +5577,7 @@
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
         <v>86</v>
       </c>
@@ -5595,7 +5608,7 @@
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
     </row>
-    <row r="21" spans="1:11" ht="283.5">
+    <row r="21" spans="1:11" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A21" s="93" t="s">
         <v>99</v>
       </c>
@@ -5626,7 +5639,7 @@
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="106"/>
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
@@ -5637,7 +5650,7 @@
       <c r="H22" s="105"/>
       <c r="I22" s="105"/>
     </row>
-    <row r="23" spans="1:11" ht="31.5">
+    <row r="23" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="107"/>
       <c r="B23" s="100" t="s">
         <v>232</v>
@@ -5664,7 +5677,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="300">
+    <row r="24" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>102</v>
       </c>
@@ -5695,7 +5708,7 @@
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
         <v>105</v>
       </c>
@@ -5726,7 +5739,7 @@
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
         <v>107</v>
       </c>
@@ -5757,7 +5770,7 @@
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
     </row>
-    <row r="27" spans="1:11" ht="31.5">
+    <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>109</v>
       </c>
@@ -5788,7 +5801,7 @@
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>111</v>
       </c>
@@ -5819,7 +5832,7 @@
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
         <v>112</v>
       </c>
@@ -5850,7 +5863,7 @@
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>113</v>
       </c>
@@ -5881,7 +5894,7 @@
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>114</v>
       </c>
@@ -5912,7 +5925,7 @@
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="99" t="s">
         <v>127</v>
       </c>
@@ -5943,7 +5956,7 @@
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
         <v>140</v>
       </c>
@@ -5974,7 +5987,7 @@
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="99" t="s">
         <v>141</v>
       </c>
@@ -6005,7 +6018,7 @@
       <c r="J34" s="84"/>
       <c r="K34" s="84"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
         <v>142</v>
       </c>
@@ -6036,7 +6049,7 @@
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
     </row>
-    <row r="36" spans="1:11" ht="31.5">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="99" t="s">
         <v>143</v>
       </c>
@@ -6067,7 +6080,7 @@
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
     </row>
-    <row r="37" spans="1:11" ht="267.75">
+    <row r="37" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
         <v>146</v>
       </c>
@@ -6098,7 +6111,7 @@
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
     </row>
-    <row r="38" spans="1:11" ht="31.5">
+    <row r="38" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="106"/>
       <c r="B38" s="104"/>
       <c r="C38" s="104"/>
@@ -6117,7 +6130,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="31.5">
+    <row r="39" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="107"/>
       <c r="B39" s="100" t="s">
         <v>232</v>
@@ -6136,7 +6149,7 @@
       <c r="H39" s="110"/>
       <c r="I39" s="110"/>
     </row>
-    <row r="40" spans="1:11" ht="300">
+    <row r="40" spans="1:11" ht="315" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
         <v>149</v>
       </c>
@@ -6167,7 +6180,7 @@
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
         <v>152</v>
       </c>
@@ -6198,7 +6211,7 @@
       <c r="J41" s="84"/>
       <c r="K41" s="84"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
         <v>153</v>
       </c>
@@ -6229,7 +6242,7 @@
       <c r="J42" s="84"/>
       <c r="K42" s="84"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
         <v>154</v>
       </c>
@@ -6260,7 +6273,7 @@
       <c r="J43" s="84"/>
       <c r="K43" s="84"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
         <v>155</v>
       </c>
@@ -6291,7 +6304,7 @@
       <c r="J44" s="84"/>
       <c r="K44" s="84"/>
     </row>
-    <row r="45" spans="1:11" ht="78.75">
+    <row r="45" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A45" s="99" t="s">
         <v>158</v>
       </c>
@@ -6322,7 +6335,7 @@
       <c r="J45" s="84"/>
       <c r="K45" s="84"/>
     </row>
-    <row r="46" spans="1:11" ht="31.5">
+    <row r="46" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="99" t="s">
         <v>160</v>
       </c>
@@ -6353,7 +6366,7 @@
       <c r="J46" s="84"/>
       <c r="K46" s="84"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="99" t="s">
         <v>161</v>
       </c>
@@ -6384,7 +6397,7 @@
       <c r="J47" s="84"/>
       <c r="K47" s="84"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
         <v>162</v>
       </c>
@@ -6415,7 +6428,7 @@
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
         <v>163</v>
       </c>
@@ -6446,7 +6459,7 @@
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
         <v>165</v>
       </c>
@@ -6477,7 +6490,7 @@
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
         <v>178</v>
       </c>
@@ -6508,7 +6521,7 @@
       <c r="J51" s="84"/>
       <c r="K51" s="84"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75">
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="99" t="s">
         <v>179</v>
       </c>
@@ -6539,7 +6552,7 @@
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="99" t="s">
         <v>180</v>
       </c>
@@ -6570,7 +6583,7 @@
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
         <v>181</v>
       </c>
@@ -6601,7 +6614,7 @@
       <c r="J54" s="84"/>
       <c r="K54" s="84"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>182</v>
       </c>
@@ -6632,7 +6645,7 @@
       <c r="J55" s="84"/>
       <c r="K55" s="84"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75">
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="99" t="s">
         <v>184</v>
       </c>
@@ -6663,7 +6676,7 @@
       <c r="J56" s="84"/>
       <c r="K56" s="84"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75">
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>186</v>
       </c>
@@ -6694,7 +6707,7 @@
       <c r="J57" s="84"/>
       <c r="K57" s="84"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="s">
         <v>187</v>
       </c>
@@ -6725,7 +6738,7 @@
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="113" t="s">
         <v>188</v>
       </c>
@@ -6760,7 +6773,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>189</v>
       </c>
@@ -6791,7 +6804,7 @@
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="99" t="s">
         <v>190</v>
       </c>
@@ -6822,7 +6835,7 @@
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75">
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="99" t="s">
         <v>191</v>
       </c>
@@ -6853,7 +6866,7 @@
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75">
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="99" t="s">
         <v>192</v>
       </c>
@@ -6884,7 +6897,7 @@
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75">
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>193</v>
       </c>
@@ -6915,7 +6928,7 @@
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75">
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>194</v>
       </c>
@@ -6946,7 +6959,7 @@
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75">
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="99" t="s">
         <v>195</v>
       </c>
@@ -6977,7 +6990,7 @@
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75">
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="99" t="s">
         <v>196</v>
       </c>
@@ -7008,7 +7021,7 @@
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75">
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="99" t="s">
         <v>197</v>
       </c>
@@ -7039,7 +7052,7 @@
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75">
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="99" t="s">
         <v>198</v>
       </c>
@@ -7070,7 +7083,7 @@
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75">
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="99" t="s">
         <v>199</v>
       </c>
@@ -7101,7 +7114,7 @@
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75">
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="99" t="s">
         <v>200</v>
       </c>
@@ -7132,7 +7145,7 @@
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75">
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="99" t="s">
         <v>201</v>
       </c>
@@ -7163,7 +7176,7 @@
       <c r="J72" s="84"/>
       <c r="K72" s="84"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75">
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="99" t="s">
         <v>202</v>
       </c>
@@ -7194,7 +7207,7 @@
       <c r="J73" s="84"/>
       <c r="K73" s="84"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75">
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="99" t="s">
         <v>203</v>
       </c>
@@ -7225,7 +7238,7 @@
       <c r="J74" s="84"/>
       <c r="K74" s="84"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75">
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
         <v>204</v>
       </c>
@@ -7256,7 +7269,7 @@
       <c r="J75" s="84"/>
       <c r="K75" s="84"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75">
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="99" t="s">
         <v>205</v>
       </c>
@@ -7287,7 +7300,7 @@
       <c r="J76" s="84"/>
       <c r="K76" s="84"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75">
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="99" t="s">
         <v>206</v>
       </c>
@@ -7318,7 +7331,7 @@
       <c r="J77" s="84"/>
       <c r="K77" s="84"/>
     </row>
-    <row r="78" spans="1:11" ht="31.5">
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="99" t="s">
         <v>207</v>
       </c>
@@ -7349,7 +7362,7 @@
       <c r="J78" s="84"/>
       <c r="K78" s="84"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75">
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
         <v>251</v>
       </c>
@@ -7380,7 +7393,7 @@
       <c r="J79" s="84"/>
       <c r="K79" s="84"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75">
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="99" t="s">
         <v>208</v>
       </c>
@@ -7411,7 +7424,7 @@
       <c r="J80" s="84"/>
       <c r="K80" s="84"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75">
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="99" t="s">
         <v>209</v>
       </c>
@@ -7442,7 +7455,7 @@
       <c r="J81" s="84"/>
       <c r="K81" s="84"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75">
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>210</v>
       </c>
@@ -7473,7 +7486,7 @@
       <c r="J82" s="84"/>
       <c r="K82" s="84"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="99" t="s">
         <v>140</v>
       </c>
@@ -7504,7 +7517,7 @@
       <c r="J83" s="84"/>
       <c r="K83" s="84"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75">
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="99" t="s">
         <v>141</v>
       </c>
@@ -7535,7 +7548,7 @@
       <c r="J84" s="84"/>
       <c r="K84" s="84"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75">
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="99" t="s">
         <v>252</v>
       </c>
@@ -7566,7 +7579,7 @@
       <c r="J85" s="84"/>
       <c r="K85" s="84"/>
     </row>
-    <row r="86" spans="1:11" ht="31.5">
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="99" t="s">
         <v>143</v>
       </c>
@@ -7597,7 +7610,7 @@
       <c r="J86" s="84"/>
       <c r="K86" s="84"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75">
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="99" t="s">
         <v>146</v>
       </c>
@@ -7628,7 +7641,7 @@
       <c r="J87" s="84"/>
       <c r="K87" s="84"/>
     </row>
-    <row r="88" spans="1:11" ht="31.5">
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="99" t="s">
         <v>149</v>
       </c>
@@ -7659,7 +7672,7 @@
       <c r="J88" s="84"/>
       <c r="K88" s="84"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75">
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="99" t="s">
         <v>211</v>
       </c>
@@ -7690,7 +7703,7 @@
       <c r="J89" s="84"/>
       <c r="K89" s="84"/>
     </row>
-    <row r="90" spans="1:11" ht="31.5">
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="99" t="s">
         <v>212</v>
       </c>
@@ -7721,7 +7734,7 @@
       <c r="J90" s="84"/>
       <c r="K90" s="84"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75">
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="99" t="s">
         <v>153</v>
       </c>
@@ -7752,7 +7765,7 @@
       <c r="J91" s="84"/>
       <c r="K91" s="84"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75">
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="99" t="s">
         <v>154</v>
       </c>
@@ -7783,7 +7796,7 @@
       <c r="J92" s="84"/>
       <c r="K92" s="84"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75">
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="99" t="s">
         <v>155</v>
       </c>
@@ -7814,7 +7827,7 @@
       <c r="J93" s="84"/>
       <c r="K93" s="84"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75">
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="99" t="s">
         <v>158</v>
       </c>
@@ -7845,7 +7858,7 @@
       <c r="J94" s="84"/>
       <c r="K94" s="84"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75">
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="99" t="s">
         <v>160</v>
       </c>
@@ -7876,7 +7889,7 @@
       <c r="J95" s="84"/>
       <c r="K95" s="84"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75">
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="99" t="s">
         <v>161</v>
       </c>
@@ -7907,7 +7920,7 @@
       <c r="J96" s="84"/>
       <c r="K96" s="84"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75">
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="99" t="s">
         <v>165</v>
       </c>
@@ -7938,7 +7951,7 @@
       <c r="J97" s="84"/>
       <c r="K97" s="84"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75">
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="99" t="s">
         <v>162</v>
       </c>
@@ -7969,7 +7982,7 @@
       <c r="J98" s="84"/>
       <c r="K98" s="84"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75">
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="99" t="s">
         <v>163</v>
       </c>
@@ -8000,7 +8013,7 @@
       <c r="J99" s="84"/>
       <c r="K99" s="84"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75">
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="99" t="s">
         <v>178</v>
       </c>
@@ -8031,7 +8044,7 @@
       <c r="J100" s="84"/>
       <c r="K100" s="84"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75">
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="99" t="s">
         <v>253</v>
       </c>
@@ -8062,7 +8075,7 @@
       <c r="J101" s="84"/>
       <c r="K101" s="84"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75">
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="99" t="s">
         <v>181</v>
       </c>
@@ -8093,7 +8106,7 @@
       <c r="J102" s="84"/>
       <c r="K102" s="84"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75">
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>182</v>
       </c>
@@ -8124,7 +8137,7 @@
       <c r="J103" s="84"/>
       <c r="K103" s="84"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75">
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="99" t="s">
         <v>184</v>
       </c>
@@ -8155,7 +8168,7 @@
       <c r="J104" s="84"/>
       <c r="K104" s="84"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75">
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="115"/>
       <c r="B105" s="116"/>
       <c r="C105" s="116"/>
@@ -8168,7 +8181,7 @@
       <c r="J105" s="84"/>
       <c r="K105" s="84"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75">
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="115" t="s">
         <v>213</v>
       </c>
@@ -8198,12 +8211,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8372,19 +8382,46 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
+    <ds:schemaRef ds:uri="3e63a3be-2d53-41f2-914e-dd0efc332534"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>